--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3184425.865068534</v>
+        <v>-3186285.872996738</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5362323.598410266</v>
+        <v>5362323.598410264</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.8334299664219</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>287.8493297879133</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2594796375887</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.5068080891675</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>329.4524837586172</v>
       </c>
       <c r="G11" t="n">
         <v>335.1249171548103</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.83384483201118</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>173.7017502545638</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>271.8174067343188</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>308.8143766729593</v>
+        <v>249.4516664621657</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.10962166677305</v>
+        <v>89.10962166677307</v>
       </c>
       <c r="C12" t="n">
-        <v>95.28493700522145</v>
+        <v>95.28493700522147</v>
       </c>
       <c r="D12" t="n">
-        <v>70.02150358154447</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>80.22151847230666</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>67.64565041028959</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>135.8698590135443</v>
       </c>
       <c r="H12" t="n">
-        <v>98.00300894892986</v>
+        <v>20.57944696583559</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.19819528308588</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>8.661760614590051</v>
       </c>
       <c r="S12" t="n">
-        <v>66.88705533198581</v>
+        <v>66.88705533198582</v>
       </c>
       <c r="T12" t="n">
         <v>116.8012902225022</v>
       </c>
       <c r="U12" t="n">
-        <v>179.2808248014993</v>
+        <v>148.4208689038235</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>155.377025166331</v>
       </c>
       <c r="W12" t="n">
         <v>174.2714211778253</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>128.3494232203832</v>
       </c>
       <c r="Y12" t="n">
         <v>128.2591337942101</v>
@@ -1528,22 +1528,22 @@
         <v>102.408418198843</v>
       </c>
       <c r="C13" t="n">
-        <v>89.82325911553355</v>
+        <v>28.88388196151223</v>
       </c>
       <c r="D13" t="n">
-        <v>71.19191103511807</v>
+        <v>71.19191103511808</v>
       </c>
       <c r="E13" t="n">
-        <v>69.01040066347488</v>
+        <v>69.0104006634749</v>
       </c>
       <c r="F13" t="n">
-        <v>67.99748603983696</v>
+        <v>67.99748603983697</v>
       </c>
       <c r="G13" t="n">
-        <v>89.3319518860699</v>
+        <v>89.33195188606992</v>
       </c>
       <c r="H13" t="n">
-        <v>73.81919917407166</v>
+        <v>73.81919917407167</v>
       </c>
       <c r="I13" t="n">
         <v>40.87309622974155</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.31880839361166</v>
       </c>
       <c r="S13" t="n">
         <v>125.0622420268079</v>
@@ -1582,13 +1582,13 @@
         <v>145.2432203545649</v>
       </c>
       <c r="U13" t="n">
-        <v>208.8280783467078</v>
+        <v>208.8280783467083</v>
       </c>
       <c r="V13" t="n">
         <v>174.7140813407337</v>
       </c>
       <c r="W13" t="n">
-        <v>192.4788675930855</v>
+        <v>209.0994363534967</v>
       </c>
       <c r="X13" t="n">
         <v>148.2860934059429</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.2161534719125</v>
+        <v>305.3102796803862</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>277.2594796375886</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>329.4524837586172</v>
+        <v>329.4524837586171</v>
       </c>
       <c r="G14" t="n">
-        <v>335.1249171548103</v>
+        <v>335.1249171548102</v>
       </c>
       <c r="H14" t="n">
-        <v>233.8441915268611</v>
+        <v>49.798124376174</v>
       </c>
       <c r="I14" t="n">
-        <v>26.86878149913302</v>
+        <v>26.86878149913295</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.83384483201118</v>
+        <v>68.83384483201112</v>
       </c>
       <c r="T14" t="n">
-        <v>133.6155215347106</v>
+        <v>133.6155215347105</v>
       </c>
       <c r="U14" t="n">
-        <v>173.7017502545638</v>
+        <v>173.7017502545637</v>
       </c>
       <c r="V14" t="n">
         <v>250.3286964870406</v>
       </c>
       <c r="W14" t="n">
-        <v>271.8174067343188</v>
+        <v>271.8174067343186</v>
       </c>
       <c r="X14" t="n">
-        <v>292.3075386953748</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>308.8143766729593</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.8698590135435</v>
+        <v>135.8698590135443</v>
       </c>
       <c r="H15" t="n">
         <v>98.00300894892986</v>
       </c>
       <c r="I15" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492116</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590051</v>
       </c>
       <c r="S15" t="n">
         <v>144.3106173150801</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.46904104482152</v>
+        <v>41.46904104482365</v>
       </c>
       <c r="C16" t="n">
-        <v>89.82325911553355</v>
+        <v>89.82325911553349</v>
       </c>
       <c r="D16" t="n">
-        <v>71.19191103511807</v>
+        <v>71.19191103511801</v>
       </c>
       <c r="E16" t="n">
-        <v>69.01040066347488</v>
+        <v>69.01040066347483</v>
       </c>
       <c r="F16" t="n">
-        <v>67.99748603983696</v>
+        <v>67.9974860398369</v>
       </c>
       <c r="G16" t="n">
-        <v>89.33195188606989</v>
+        <v>89.33195188606983</v>
       </c>
       <c r="H16" t="n">
-        <v>73.81919917407166</v>
+        <v>73.8191991740716</v>
       </c>
       <c r="I16" t="n">
-        <v>40.87309622974154</v>
+        <v>40.87309622974148</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.31880839361151</v>
+        <v>44.3188083936116</v>
       </c>
       <c r="S16" t="n">
-        <v>125.0622420268079</v>
+        <v>125.0622420268081</v>
       </c>
       <c r="T16" t="n">
-        <v>145.243220354565</v>
+        <v>145.2432203545649</v>
       </c>
       <c r="U16" t="n">
         <v>208.8280783467076</v>
@@ -1828,10 +1828,10 @@
         <v>209.0994363534967</v>
       </c>
       <c r="X16" t="n">
-        <v>148.2860934059429</v>
+        <v>148.2860934059428</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.1610913690005</v>
+        <v>141.1610913690004</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>98.85504891671769</v>
       </c>
       <c r="V17" t="n">
-        <v>175.4819951491945</v>
+        <v>175.4819951491955</v>
       </c>
       <c r="W17" t="n">
         <v>196.9707053964727</v>
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8698590135435</v>
+        <v>135.8698590135443</v>
       </c>
       <c r="H18" t="n">
         <v>98.00300894892986</v>
       </c>
       <c r="I18" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492197</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590051</v>
       </c>
       <c r="S18" t="n">
         <v>144.3106173150801</v>
       </c>
       <c r="T18" t="n">
-        <v>194.2248522055965</v>
+        <v>194.2248522055963</v>
       </c>
       <c r="U18" t="n">
         <v>225.8444308869178</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>27.56171686099694</v>
       </c>
       <c r="C19" t="n">
-        <v>164.0040398991333</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>202.4858040099022</v>
+        <v>50.21554068896182</v>
       </c>
       <c r="T19" t="n">
         <v>70.39651901671884</v>
       </c>
       <c r="U19" t="n">
-        <v>133.9813770088617</v>
+        <v>283.0088591303074</v>
       </c>
       <c r="V19" t="n">
         <v>99.86738000288764</v>
@@ -2068,7 +2068,7 @@
         <v>73.43939206809679</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.31439003115443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2169,7 +2169,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933831</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>135.8698590135443</v>
@@ -2178,7 +2178,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I21" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492197</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590051</v>
       </c>
       <c r="S21" t="n">
         <v>144.3106173150801</v>
@@ -2214,7 +2214,7 @@
         <v>194.2248522055965</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8444308869178</v>
+        <v>225.8444308869181</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2239,19 +2239,19 @@
         <v>27.56171686099694</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>14.97655777768747</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>3.606434098514707</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>14.48525054822382</v>
+        <v>166.7555138691642</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.21554068896182</v>
+        <v>202.4858040099022</v>
       </c>
       <c r="T22" t="n">
         <v>70.39651901671884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2516403298021</v>
+        <v>133.9813770088617</v>
       </c>
       <c r="V22" t="n">
         <v>99.86738000288764</v>
       </c>
       <c r="W22" t="n">
-        <v>136.8462544905272</v>
+        <v>134.2527350156506</v>
       </c>
       <c r="X22" t="n">
         <v>73.43939206809679</v>
@@ -2415,7 +2415,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I24" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492197</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590051</v>
       </c>
       <c r="S24" t="n">
         <v>144.3106173150801</v>
@@ -2482,22 +2482,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>22.30084388496834</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>14.48525054822382</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.2427611571659</v>
       </c>
       <c r="I25" t="n">
-        <v>39.97062771711997</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.011770023545992</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>121.7423703767059</v>
       </c>
       <c r="S25" t="n">
-        <v>50.21554068896182</v>
+        <v>202.4858040099022</v>
       </c>
       <c r="T25" t="n">
         <v>70.39651901671884</v>
@@ -2564,7 +2564,7 @@
         <v>301.9507119366046</v>
       </c>
       <c r="F26" t="n">
-        <v>326.8963876060542</v>
+        <v>326.8963876060543</v>
       </c>
       <c r="G26" t="n">
         <v>332.5688210022474</v>
@@ -2573,7 +2573,7 @@
         <v>231.2880953742982</v>
       </c>
       <c r="I26" t="n">
-        <v>24.31268534657013</v>
+        <v>24.31268534657018</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.27774867944829</v>
+        <v>66.27774867944835</v>
       </c>
       <c r="T26" t="n">
-        <v>131.0594253821477</v>
+        <v>131.0594253821478</v>
       </c>
       <c r="U26" t="n">
         <v>171.1456541020009</v>
       </c>
       <c r="V26" t="n">
-        <v>247.7726003344777</v>
+        <v>247.7726003344778</v>
       </c>
       <c r="W26" t="n">
-        <v>269.2613105817558</v>
+        <v>269.2613105817559</v>
       </c>
       <c r="X26" t="n">
-        <v>289.7514425428118</v>
+        <v>289.7514425428119</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.2582805203964</v>
+        <v>306.2582805203965</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I27" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492197</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590051</v>
       </c>
       <c r="S27" t="n">
         <v>144.3106173150801</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.85232204628012</v>
+        <v>99.85232204628018</v>
       </c>
       <c r="C28" t="n">
-        <v>87.26716296297066</v>
+        <v>87.26716296297072</v>
       </c>
       <c r="D28" t="n">
-        <v>68.63581488255518</v>
+        <v>68.63581488255524</v>
       </c>
       <c r="E28" t="n">
-        <v>66.454304510912</v>
+        <v>66.45430451091205</v>
       </c>
       <c r="F28" t="n">
-        <v>65.44138988727407</v>
+        <v>65.44138988727413</v>
       </c>
       <c r="G28" t="n">
-        <v>86.77585573350702</v>
+        <v>86.77585573350707</v>
       </c>
       <c r="H28" t="n">
-        <v>71.26310302150877</v>
+        <v>71.26310302150883</v>
       </c>
       <c r="I28" t="n">
-        <v>38.31700007717866</v>
+        <v>38.3170000771787</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76271224104877</v>
+        <v>41.76271224104882</v>
       </c>
       <c r="S28" t="n">
         <v>122.5061458742448</v>
@@ -2767,19 +2767,19 @@
         <v>142.6871242020021</v>
       </c>
       <c r="U28" t="n">
-        <v>206.2719821941454</v>
+        <v>206.2719821941449</v>
       </c>
       <c r="V28" t="n">
-        <v>172.1579851881708</v>
+        <v>172.1579851881709</v>
       </c>
       <c r="W28" t="n">
-        <v>206.5433402009338</v>
+        <v>206.5433402009339</v>
       </c>
       <c r="X28" t="n">
         <v>145.72999725338</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.6049952164376</v>
+        <v>138.6049952164377</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>301.9507119366046</v>
       </c>
       <c r="F29" t="n">
-        <v>326.8963876060542</v>
+        <v>326.8963876060543</v>
       </c>
       <c r="G29" t="n">
         <v>332.5688210022474</v>
@@ -2810,7 +2810,7 @@
         <v>231.2880953742982</v>
       </c>
       <c r="I29" t="n">
-        <v>24.31268534657013</v>
+        <v>24.31268534657016</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.27774867944829</v>
+        <v>66.27774867944834</v>
       </c>
       <c r="T29" t="n">
         <v>131.0594253821477</v>
@@ -2849,16 +2849,16 @@
         <v>171.1456541020009</v>
       </c>
       <c r="V29" t="n">
-        <v>247.7726003344777</v>
+        <v>247.7726003344778</v>
       </c>
       <c r="W29" t="n">
-        <v>269.2613105817558</v>
+        <v>269.2613105817559</v>
       </c>
       <c r="X29" t="n">
-        <v>289.7514425428118</v>
+        <v>289.7514425428119</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.2582805203964</v>
+        <v>306.2582805203965</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I30" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492197</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590051</v>
       </c>
       <c r="S30" t="n">
         <v>144.3106173150801</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.85232204628012</v>
+        <v>99.85232204628016</v>
       </c>
       <c r="C31" t="n">
-        <v>87.26716296297066</v>
+        <v>87.2671629629707</v>
       </c>
       <c r="D31" t="n">
-        <v>68.63581488255518</v>
+        <v>68.63581488255522</v>
       </c>
       <c r="E31" t="n">
-        <v>66.454304510912</v>
+        <v>66.45430451091204</v>
       </c>
       <c r="F31" t="n">
-        <v>65.44138988727407</v>
+        <v>65.44138988727411</v>
       </c>
       <c r="G31" t="n">
-        <v>86.77585573350702</v>
+        <v>86.77585573350706</v>
       </c>
       <c r="H31" t="n">
-        <v>71.26310302150877</v>
+        <v>71.26310302150881</v>
       </c>
       <c r="I31" t="n">
-        <v>38.31700007717866</v>
+        <v>38.31700007717869</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76271224104877</v>
+        <v>41.7627122410484</v>
       </c>
       <c r="S31" t="n">
         <v>122.506145874245</v>
@@ -3004,19 +3004,19 @@
         <v>142.6871242020021</v>
       </c>
       <c r="U31" t="n">
-        <v>206.2719821941454</v>
+        <v>206.2719821941452</v>
       </c>
       <c r="V31" t="n">
-        <v>172.1579851881708</v>
+        <v>172.1579851881709</v>
       </c>
       <c r="W31" t="n">
-        <v>206.5433402009338</v>
+        <v>206.5433402009339</v>
       </c>
       <c r="X31" t="n">
         <v>145.72999725338</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.6049952164376</v>
+        <v>138.6049952164377</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>302.7541835278234</v>
       </c>
       <c r="C32" t="n">
-        <v>285.2932336353504</v>
+        <v>285.2932336353505</v>
       </c>
       <c r="D32" t="n">
         <v>274.7033834850258</v>
@@ -3038,16 +3038,16 @@
         <v>301.9507119366046</v>
       </c>
       <c r="F32" t="n">
-        <v>326.8963876060542</v>
+        <v>326.8963876060543</v>
       </c>
       <c r="G32" t="n">
         <v>332.5688210022474</v>
       </c>
       <c r="H32" t="n">
-        <v>231.2880953742982</v>
+        <v>231.2880953742983</v>
       </c>
       <c r="I32" t="n">
-        <v>24.31268534657013</v>
+        <v>24.31268534657019</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.27774867944829</v>
+        <v>66.27774867944837</v>
       </c>
       <c r="T32" t="n">
-        <v>131.0594253821477</v>
+        <v>131.0594253821478</v>
       </c>
       <c r="U32" t="n">
         <v>171.1456541020009</v>
       </c>
       <c r="V32" t="n">
-        <v>247.7726003344777</v>
+        <v>247.7726003344778</v>
       </c>
       <c r="W32" t="n">
-        <v>269.2613105817558</v>
+        <v>269.2613105817559</v>
       </c>
       <c r="X32" t="n">
-        <v>289.7514425428118</v>
+        <v>289.7514425428119</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.2582805203964</v>
+        <v>306.2582805203965</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I33" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492197</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590051</v>
       </c>
       <c r="S33" t="n">
         <v>144.3106173150801</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.85232204628012</v>
+        <v>99.85232204628019</v>
       </c>
       <c r="C34" t="n">
-        <v>87.26716296297066</v>
+        <v>87.26716296297073</v>
       </c>
       <c r="D34" t="n">
-        <v>68.63581488255518</v>
+        <v>68.63581488255525</v>
       </c>
       <c r="E34" t="n">
-        <v>66.454304510912</v>
+        <v>66.45430451091207</v>
       </c>
       <c r="F34" t="n">
-        <v>65.44138988727407</v>
+        <v>65.44138988727414</v>
       </c>
       <c r="G34" t="n">
-        <v>86.775855733507</v>
+        <v>86.77585573350707</v>
       </c>
       <c r="H34" t="n">
-        <v>71.26310302150877</v>
+        <v>71.26310302150884</v>
       </c>
       <c r="I34" t="n">
-        <v>38.31700007717865</v>
+        <v>38.31700007717872</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76271224104877</v>
+        <v>41.76271224104884</v>
       </c>
       <c r="S34" t="n">
-        <v>122.506145874245</v>
+        <v>122.5061458742451</v>
       </c>
       <c r="T34" t="n">
-        <v>142.687124202002</v>
+        <v>142.6871242020021</v>
       </c>
       <c r="U34" t="n">
-        <v>206.2719821941449</v>
+        <v>206.271982194145</v>
       </c>
       <c r="V34" t="n">
-        <v>172.1579851881708</v>
+        <v>172.1579851881709</v>
       </c>
       <c r="W34" t="n">
-        <v>206.5433402009338</v>
+        <v>206.5433402009339</v>
       </c>
       <c r="X34" t="n">
         <v>145.72999725338</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.6049952164376</v>
+        <v>138.6049952164377</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>41.96506333287817</v>
+        <v>41.96506333287819</v>
       </c>
       <c r="T35" t="n">
         <v>106.7467400355776</v>
@@ -3363,7 +3363,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I36" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492197</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590051</v>
       </c>
       <c r="S36" t="n">
         <v>144.3106173150801</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.53963669971</v>
+        <v>75.53963669971002</v>
       </c>
       <c r="C37" t="n">
-        <v>62.95447761640054</v>
+        <v>62.95447761640055</v>
       </c>
       <c r="D37" t="n">
-        <v>44.32312953598506</v>
+        <v>44.32312953598507</v>
       </c>
       <c r="E37" t="n">
-        <v>42.14161916434188</v>
+        <v>42.14161916434189</v>
       </c>
       <c r="F37" t="n">
-        <v>41.12870454070395</v>
+        <v>41.12870454070396</v>
       </c>
       <c r="G37" t="n">
-        <v>62.46317038693688</v>
+        <v>62.46317038693689</v>
       </c>
       <c r="H37" t="n">
-        <v>46.95041767493865</v>
+        <v>46.95041767493866</v>
       </c>
       <c r="I37" t="n">
-        <v>14.00431473060853</v>
+        <v>14.00431473060854</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.45002689447865</v>
+        <v>17.45002689447866</v>
       </c>
       <c r="S37" t="n">
-        <v>98.19346052767489</v>
+        <v>98.1934605276749</v>
       </c>
       <c r="T37" t="n">
         <v>118.3744388554319</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>278.4414981812532</v>
+        <v>278.4414981812533</v>
       </c>
       <c r="C38" t="n">
-        <v>260.9805482887802</v>
+        <v>260.9805482887803</v>
       </c>
       <c r="D38" t="n">
-        <v>250.3906981384556</v>
+        <v>250.3906981384557</v>
       </c>
       <c r="E38" t="n">
-        <v>277.6380265900344</v>
+        <v>277.6380265900345</v>
       </c>
       <c r="F38" t="n">
         <v>302.5837022594841</v>
       </c>
       <c r="G38" t="n">
-        <v>308.2561356556772</v>
+        <v>308.2561356556773</v>
       </c>
       <c r="H38" t="n">
-        <v>206.975410027728</v>
+        <v>206.9754100277281</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.96506333287813</v>
+        <v>41.96506333287818</v>
       </c>
       <c r="T38" t="n">
-        <v>106.7467400355775</v>
+        <v>106.7467400355776</v>
       </c>
       <c r="U38" t="n">
-        <v>146.8329687554307</v>
+        <v>146.8329687554308</v>
       </c>
       <c r="V38" t="n">
         <v>223.4599149879076</v>
@@ -3569,7 +3569,7 @@
         <v>265.4387571962417</v>
       </c>
       <c r="Y38" t="n">
-        <v>281.9455951738262</v>
+        <v>281.9455951738263</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I39" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492197</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590051</v>
       </c>
       <c r="S39" t="n">
         <v>144.3106173150801</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.53963669970996</v>
+        <v>75.53963669971002</v>
       </c>
       <c r="C40" t="n">
-        <v>62.9544776164005</v>
+        <v>62.95447761640055</v>
       </c>
       <c r="D40" t="n">
-        <v>44.32312953598502</v>
+        <v>44.32312953598507</v>
       </c>
       <c r="E40" t="n">
-        <v>42.14161916434183</v>
+        <v>42.14161916434189</v>
       </c>
       <c r="F40" t="n">
-        <v>41.12870454070391</v>
+        <v>41.12870454070396</v>
       </c>
       <c r="G40" t="n">
-        <v>62.46317038693684</v>
+        <v>62.46317038693689</v>
       </c>
       <c r="H40" t="n">
-        <v>46.95041767493861</v>
+        <v>46.95041767493866</v>
       </c>
       <c r="I40" t="n">
-        <v>14.00431473060849</v>
+        <v>14.00431473060854</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>17.45002689447861</v>
+        <v>17.45002689447866</v>
       </c>
       <c r="S40" t="n">
-        <v>98.19346052767484</v>
+        <v>98.1934605276749</v>
       </c>
       <c r="T40" t="n">
         <v>118.3744388554319</v>
       </c>
       <c r="U40" t="n">
-        <v>181.9592968475747</v>
+        <v>181.9592968475748</v>
       </c>
       <c r="V40" t="n">
-        <v>147.8452998416006</v>
+        <v>147.8452998416007</v>
       </c>
       <c r="W40" t="n">
-        <v>182.2306548543636</v>
+        <v>182.2306548543637</v>
       </c>
       <c r="X40" t="n">
-        <v>121.4173119068098</v>
+        <v>121.4173119068099</v>
       </c>
       <c r="Y40" t="n">
         <v>114.2923098698675</v>
@@ -3740,22 +3740,22 @@
         <v>278.4414981812532</v>
       </c>
       <c r="C41" t="n">
-        <v>260.9805482887803</v>
+        <v>260.9805482887801</v>
       </c>
       <c r="D41" t="n">
-        <v>250.3906981384556</v>
+        <v>250.3906981384555</v>
       </c>
       <c r="E41" t="n">
         <v>277.6380265900344</v>
       </c>
       <c r="F41" t="n">
-        <v>302.5837022594841</v>
+        <v>302.583702259484</v>
       </c>
       <c r="G41" t="n">
         <v>308.2561356556772</v>
       </c>
       <c r="H41" t="n">
-        <v>206.975410027728</v>
+        <v>206.9754100277279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.96506333287815</v>
+        <v>41.96506333287807</v>
       </c>
       <c r="T41" t="n">
         <v>106.7467400355775</v>
@@ -3797,16 +3797,16 @@
         <v>146.8329687554307</v>
       </c>
       <c r="V41" t="n">
-        <v>223.4599149879076</v>
+        <v>223.4599149879075</v>
       </c>
       <c r="W41" t="n">
-        <v>244.9486252351857</v>
+        <v>244.9486252351856</v>
       </c>
       <c r="X41" t="n">
-        <v>265.4387571962417</v>
+        <v>265.4387571962416</v>
       </c>
       <c r="Y41" t="n">
-        <v>281.9455951738263</v>
+        <v>281.9455951738262</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I42" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492197</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590051</v>
       </c>
       <c r="S42" t="n">
         <v>144.3106173150801</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.53963669970997</v>
+        <v>75.5396366997099</v>
       </c>
       <c r="C43" t="n">
-        <v>62.95447761640051</v>
+        <v>62.95447761640044</v>
       </c>
       <c r="D43" t="n">
-        <v>44.32312953598503</v>
+        <v>44.32312953598496</v>
       </c>
       <c r="E43" t="n">
-        <v>42.14161916434185</v>
+        <v>42.14161916434178</v>
       </c>
       <c r="F43" t="n">
-        <v>41.12870454070392</v>
+        <v>41.12870454070385</v>
       </c>
       <c r="G43" t="n">
-        <v>62.46317038693685</v>
+        <v>62.46317038693678</v>
       </c>
       <c r="H43" t="n">
-        <v>46.95041767493862</v>
+        <v>46.95041767493855</v>
       </c>
       <c r="I43" t="n">
-        <v>14.00431473060851</v>
+        <v>14.00431473060843</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.45002689447863</v>
+        <v>17.45002689447855</v>
       </c>
       <c r="S43" t="n">
-        <v>98.19346052767486</v>
+        <v>98.19346052767479</v>
       </c>
       <c r="T43" t="n">
-        <v>118.3744388554319</v>
+        <v>118.3744388554318</v>
       </c>
       <c r="U43" t="n">
-        <v>181.9592968475748</v>
+        <v>181.9592968475747</v>
       </c>
       <c r="V43" t="n">
-        <v>147.8452998416007</v>
+        <v>147.8452998416006</v>
       </c>
       <c r="W43" t="n">
-        <v>182.2306548543637</v>
+        <v>182.2306548543636</v>
       </c>
       <c r="X43" t="n">
         <v>121.4173119068098</v>
       </c>
       <c r="Y43" t="n">
-        <v>114.2923098698675</v>
+        <v>114.2923098698674</v>
       </c>
     </row>
     <row r="44">
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.96506333287816</v>
+        <v>41.96506333287814</v>
       </c>
       <c r="T44" t="n">
-        <v>106.7467400355776</v>
+        <v>106.7467400355775</v>
       </c>
       <c r="U44" t="n">
         <v>146.8329687554307</v>
@@ -4074,7 +4074,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I45" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492197</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.661760614590094</v>
+        <v>8.661760614590051</v>
       </c>
       <c r="S45" t="n">
         <v>144.3106173150801</v>
@@ -4147,13 +4147,13 @@
         <v>41.12870454070392</v>
       </c>
       <c r="G46" t="n">
-        <v>62.46317038693686</v>
+        <v>62.46317038693685</v>
       </c>
       <c r="H46" t="n">
         <v>46.95041767493862</v>
       </c>
       <c r="I46" t="n">
-        <v>14.00431473060851</v>
+        <v>14.0043147306085</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>17.45002689447863</v>
+        <v>17.45002689447862</v>
       </c>
       <c r="S46" t="n">
         <v>98.19346052767486</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>890.6499737048708</v>
+        <v>1541.7097130969</v>
       </c>
       <c r="C11" t="n">
-        <v>890.6499737048708</v>
+        <v>1250.95281432123</v>
       </c>
       <c r="D11" t="n">
-        <v>610.589893262862</v>
+        <v>1250.95281432123</v>
       </c>
       <c r="E11" t="n">
-        <v>610.589893262862</v>
+        <v>943.3701798877278</v>
       </c>
       <c r="F11" t="n">
-        <v>610.589893262862</v>
+        <v>610.5898932628619</v>
       </c>
       <c r="G11" t="n">
-        <v>272.0798759347707</v>
+        <v>272.0798759347708</v>
       </c>
       <c r="H11" t="n">
         <v>35.87362186723428</v>
@@ -5039,52 +5039,52 @@
         <v>35.87362186723428</v>
       </c>
       <c r="J11" t="n">
-        <v>88.06477096083677</v>
+        <v>255.4704199811898</v>
       </c>
       <c r="K11" t="n">
-        <v>217.024292538413</v>
+        <v>384.4299415587661</v>
       </c>
       <c r="L11" t="n">
-        <v>413.9117442942787</v>
+        <v>581.3173933146319</v>
       </c>
       <c r="M11" t="n">
-        <v>784.3335363964256</v>
+        <v>832.062056987697</v>
       </c>
       <c r="N11" t="n">
-        <v>1043.749319252029</v>
+        <v>1091.4778398433</v>
       </c>
       <c r="O11" t="n">
-        <v>1275.373025589587</v>
+        <v>1323.101546180859</v>
       </c>
       <c r="P11" t="n">
-        <v>1719.309096196611</v>
+        <v>1486.286019877171</v>
       </c>
       <c r="Q11" t="n">
-        <v>1793.681093361714</v>
+        <v>1770.769459162634</v>
       </c>
       <c r="R11" t="n">
         <v>1793.681093361714</v>
       </c>
       <c r="S11" t="n">
-        <v>1724.151957167763</v>
+        <v>1793.681093361714</v>
       </c>
       <c r="T11" t="n">
-        <v>1724.151957167763</v>
+        <v>1793.681093361714</v>
       </c>
       <c r="U11" t="n">
-        <v>1548.695643779315</v>
+        <v>1793.681093361714</v>
       </c>
       <c r="V11" t="n">
-        <v>1548.695643779315</v>
+        <v>1793.681093361714</v>
       </c>
       <c r="W11" t="n">
-        <v>1274.132606673943</v>
+        <v>1793.681093361714</v>
       </c>
       <c r="X11" t="n">
-        <v>1274.132606673943</v>
+        <v>1793.681093361714</v>
       </c>
       <c r="Y11" t="n">
-        <v>962.1988928628725</v>
+        <v>1541.7097130969</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>588.4458212933316</v>
+        <v>767.2794771006796</v>
       </c>
       <c r="C12" t="n">
-        <v>492.1984101769463</v>
+        <v>671.0320659842943</v>
       </c>
       <c r="D12" t="n">
-        <v>421.4696186804367</v>
+        <v>522.097656323043</v>
       </c>
       <c r="E12" t="n">
-        <v>340.437781839723</v>
+        <v>362.8602013175875</v>
       </c>
       <c r="F12" t="n">
-        <v>272.1088420313496</v>
+        <v>216.3256433444725</v>
       </c>
       <c r="G12" t="n">
-        <v>134.8665601994867</v>
+        <v>79.08336151260951</v>
       </c>
       <c r="H12" t="n">
-        <v>35.87362186723428</v>
+        <v>58.29604134509881</v>
       </c>
       <c r="I12" t="n">
         <v>35.87362186723428</v>
       </c>
       <c r="J12" t="n">
-        <v>48.14046576522581</v>
+        <v>48.14046576522583</v>
       </c>
       <c r="K12" t="n">
-        <v>147.2612805459674</v>
+        <v>147.2612805459675</v>
       </c>
       <c r="L12" t="n">
-        <v>326.8639894421275</v>
+        <v>591.1973511529917</v>
       </c>
       <c r="M12" t="n">
-        <v>770.8000600491517</v>
+        <v>846.739759135166</v>
       </c>
       <c r="N12" t="n">
-        <v>1020.212949608104</v>
+        <v>1096.152648694118</v>
       </c>
       <c r="O12" t="n">
-        <v>1464.149020215128</v>
+        <v>1302.096920678759</v>
       </c>
       <c r="P12" t="n">
-        <v>1610.104388607263</v>
+        <v>1746.032991285783</v>
       </c>
       <c r="Q12" t="n">
         <v>1793.681093361714</v>
       </c>
       <c r="R12" t="n">
-        <v>1793.681093361714</v>
+        <v>1784.931840215664</v>
       </c>
       <c r="S12" t="n">
-        <v>1726.118411208193</v>
+        <v>1717.369158062143</v>
       </c>
       <c r="T12" t="n">
-        <v>1608.137309973342</v>
+        <v>1599.388056827292</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.045567749606</v>
+        <v>1449.46798722747</v>
       </c>
       <c r="V12" t="n">
-        <v>1191.893459517863</v>
+        <v>1292.521497160469</v>
       </c>
       <c r="W12" t="n">
-        <v>1015.861720954403</v>
+        <v>1116.489758597009</v>
       </c>
       <c r="X12" t="n">
-        <v>808.0102207488702</v>
+        <v>986.8438765562182</v>
       </c>
       <c r="Y12" t="n">
-        <v>678.455540148658</v>
+        <v>857.289195956006</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.9921109014249</v>
+        <v>481.4371844832195</v>
       </c>
       <c r="C13" t="n">
-        <v>452.2615461382597</v>
+        <v>452.2615461382576</v>
       </c>
       <c r="D13" t="n">
-        <v>380.3505248906656</v>
+        <v>380.3505248906636</v>
       </c>
       <c r="E13" t="n">
-        <v>310.6430494730142</v>
+        <v>310.6430494730122</v>
       </c>
       <c r="F13" t="n">
-        <v>241.9587201398456</v>
+        <v>241.9587201398435</v>
       </c>
       <c r="G13" t="n">
-        <v>151.7244253054315</v>
+        <v>151.7244253054294</v>
       </c>
       <c r="H13" t="n">
         <v>77.15957765485201</v>
@@ -5203,13 +5203,13 @@
         <v>303.2770659414889</v>
       </c>
       <c r="L13" t="n">
-        <v>589.0837408197772</v>
+        <v>589.0837408197773</v>
       </c>
       <c r="M13" t="n">
-        <v>896.6492882624206</v>
+        <v>896.6492882624209</v>
       </c>
       <c r="N13" t="n">
-        <v>1204.158780512781</v>
+        <v>1204.158780512782</v>
       </c>
       <c r="O13" t="n">
         <v>1478.028540358913</v>
@@ -5221,28 +5221,28 @@
         <v>1793.681093361714</v>
       </c>
       <c r="R13" t="n">
-        <v>1793.681093361714</v>
+        <v>1748.914620236854</v>
       </c>
       <c r="S13" t="n">
-        <v>1667.355596364938</v>
+        <v>1622.589123240078</v>
       </c>
       <c r="T13" t="n">
-        <v>1520.645272774469</v>
+        <v>1475.878799649608</v>
       </c>
       <c r="U13" t="n">
-        <v>1309.707819899006</v>
+        <v>1264.941346774146</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.228949857861</v>
+        <v>1088.462476733</v>
       </c>
       <c r="W13" t="n">
-        <v>938.8058512789869</v>
+        <v>877.2509248607814</v>
       </c>
       <c r="X13" t="n">
-        <v>789.0219185457113</v>
+        <v>727.4669921275059</v>
       </c>
       <c r="Y13" t="n">
-        <v>646.4349575669229</v>
+        <v>584.8800311487175</v>
       </c>
     </row>
     <row r="14">
@@ -5252,61 +5252,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>986.8100182571424</v>
+        <v>1080.964980365123</v>
       </c>
       <c r="C14" t="n">
-        <v>986.8100182571424</v>
+        <v>1080.964980365123</v>
       </c>
       <c r="D14" t="n">
-        <v>986.8100182571424</v>
+        <v>800.9048999231145</v>
       </c>
       <c r="E14" t="n">
-        <v>986.8100182571424</v>
+        <v>800.9048999231145</v>
       </c>
       <c r="F14" t="n">
-        <v>654.0297316322765</v>
+        <v>468.1246132982487</v>
       </c>
       <c r="G14" t="n">
-        <v>315.5197143041852</v>
+        <v>129.6145959701576</v>
       </c>
       <c r="H14" t="n">
-        <v>79.31346023664877</v>
+        <v>79.31346023664851</v>
       </c>
       <c r="I14" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J14" t="n">
-        <v>104.3644259977936</v>
+        <v>271.7700750181467</v>
       </c>
       <c r="K14" t="n">
-        <v>554.227906020823</v>
+        <v>721.6335550411761</v>
       </c>
       <c r="L14" t="n">
-        <v>1164.599960181635</v>
+        <v>1077.639025439763</v>
       </c>
       <c r="M14" t="n">
-        <v>1810.244261871</v>
+        <v>1328.383689112829</v>
       </c>
       <c r="N14" t="n">
-        <v>2069.660044726603</v>
+        <v>1587.799471968432</v>
       </c>
       <c r="O14" t="n">
-        <v>2371.107374348142</v>
+        <v>1819.42317830599</v>
       </c>
       <c r="P14" t="n">
-        <v>2534.291848044455</v>
+        <v>2301.18837309207</v>
       </c>
       <c r="Q14" t="n">
-        <v>2608.663845209558</v>
+        <v>2585.752211010479</v>
       </c>
       <c r="R14" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="S14" t="n">
-        <v>2539.134709015607</v>
+        <v>2539.134709015608</v>
       </c>
       <c r="T14" t="n">
-        <v>2404.169535748223</v>
+        <v>2404.169535748224</v>
       </c>
       <c r="U14" t="n">
         <v>2228.713222359775</v>
@@ -5318,10 +5318,10 @@
         <v>1701.292916075573</v>
       </c>
       <c r="X14" t="n">
-        <v>1406.032775979235</v>
+        <v>1701.292916075573</v>
       </c>
       <c r="Y14" t="n">
-        <v>1094.099062168165</v>
+        <v>1389.359202264503</v>
       </c>
     </row>
     <row r="15">
@@ -5346,40 +5346,40 @@
         <v>327.457831709641</v>
       </c>
       <c r="G15" t="n">
-        <v>190.2155498777789</v>
+        <v>190.2155498777781</v>
       </c>
       <c r="H15" t="n">
-        <v>91.22261154552649</v>
+        <v>91.22261154552568</v>
       </c>
       <c r="I15" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J15" t="n">
-        <v>64.44012080218269</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5609355829243</v>
+        <v>550.2116452123819</v>
       </c>
       <c r="L15" t="n">
-        <v>710.295586329509</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M15" t="n">
-        <v>1254.501376160399</v>
+        <v>1436.448557385871</v>
       </c>
       <c r="N15" t="n">
-        <v>1503.914265719351</v>
+        <v>1685.861446944823</v>
       </c>
       <c r="O15" t="n">
-        <v>2099.782233787954</v>
+        <v>1891.805718929464</v>
       </c>
       <c r="P15" t="n">
-        <v>2561.015743133627</v>
+        <v>2353.039228275137</v>
       </c>
       <c r="Q15" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R15" t="n">
-        <v>2599.914592063507</v>
+        <v>2599.914592063508</v>
       </c>
       <c r="S15" t="n">
         <v>2454.146291745245</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.2917659383796</v>
+        <v>559.2917659383793</v>
       </c>
       <c r="C16" t="n">
-        <v>468.5612011752144</v>
+        <v>468.5612011752141</v>
       </c>
       <c r="D16" t="n">
-        <v>396.6501799276204</v>
+        <v>396.6501799276201</v>
       </c>
       <c r="E16" t="n">
-        <v>326.942704509969</v>
+        <v>326.9427045099688</v>
       </c>
       <c r="F16" t="n">
-        <v>258.2583751768004</v>
+        <v>258.2583751768002</v>
       </c>
       <c r="G16" t="n">
-        <v>168.0240803423863</v>
+        <v>168.0240803423862</v>
       </c>
       <c r="H16" t="n">
-        <v>93.45923269180889</v>
+        <v>93.45923269180884</v>
       </c>
       <c r="I16" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J16" t="n">
-        <v>122.8709509441442</v>
+        <v>122.870950944144</v>
       </c>
       <c r="K16" t="n">
         <v>319.5767209784459</v>
       </c>
       <c r="L16" t="n">
-        <v>605.3833958567342</v>
+        <v>605.3833958567343</v>
       </c>
       <c r="M16" t="n">
-        <v>912.9489432993776</v>
+        <v>912.9489432993778</v>
       </c>
       <c r="N16" t="n">
-        <v>1220.458435549738</v>
+        <v>1220.458435549739</v>
       </c>
       <c r="O16" t="n">
-        <v>1494.32819539587</v>
+        <v>1494.328195395871</v>
       </c>
       <c r="P16" t="n">
         <v>1716.212991257554</v>
@@ -5467,19 +5467,19 @@
         <v>1492.178454686566</v>
       </c>
       <c r="U16" t="n">
-        <v>1281.241001811103</v>
+        <v>1281.241001811104</v>
       </c>
       <c r="V16" t="n">
-        <v>1104.762131769958</v>
+        <v>1104.762131769959</v>
       </c>
       <c r="W16" t="n">
-        <v>893.5505798977392</v>
+        <v>893.5505798977398</v>
       </c>
       <c r="X16" t="n">
-        <v>743.7666471644625</v>
+        <v>743.7666471644643</v>
       </c>
       <c r="Y16" t="n">
-        <v>601.1796861856741</v>
+        <v>601.1796861856759</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1169.298906679761</v>
       </c>
       <c r="D17" t="n">
-        <v>964.8415548618395</v>
+        <v>964.8415548618393</v>
       </c>
       <c r="E17" t="n">
-        <v>732.8616490524239</v>
+        <v>732.8616490524237</v>
       </c>
       <c r="F17" t="n">
-        <v>475.6840910516451</v>
+        <v>475.6840910516448</v>
       </c>
       <c r="G17" t="n">
         <v>212.7768023476407</v>
       </c>
       <c r="H17" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="I17" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J17" t="n">
-        <v>104.3644259977936</v>
+        <v>271.7700750181467</v>
       </c>
       <c r="K17" t="n">
-        <v>233.3239475753699</v>
+        <v>721.6335550411761</v>
       </c>
       <c r="L17" t="n">
-        <v>430.2113993312355</v>
+        <v>1310.742500392148</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.855701020601</v>
+        <v>1561.487164065213</v>
       </c>
       <c r="N17" t="n">
-        <v>1721.500002709967</v>
+        <v>1820.902946920816</v>
       </c>
       <c r="O17" t="n">
         <v>2052.526653258375</v>
@@ -5534,19 +5534,19 @@
         <v>2534.291848044455</v>
       </c>
       <c r="Q17" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R17" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="S17" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="T17" t="n">
         <v>2549.301400566261</v>
       </c>
       <c r="U17" t="n">
-        <v>2449.447815801899</v>
+        <v>2449.4478158019</v>
       </c>
       <c r="V17" t="n">
         <v>2272.193275247157</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>956.6172836305898</v>
+        <v>956.6172836305906</v>
       </c>
       <c r="C18" t="n">
-        <v>782.1642543494628</v>
+        <v>782.1642543494636</v>
       </c>
       <c r="D18" t="n">
-        <v>633.2298446882115</v>
+        <v>633.2298446882123</v>
       </c>
       <c r="E18" t="n">
-        <v>473.992389682756</v>
+        <v>473.9923896827569</v>
       </c>
       <c r="F18" t="n">
-        <v>327.457831709641</v>
+        <v>327.4578317096418</v>
       </c>
       <c r="G18" t="n">
         <v>190.2155498777789</v>
@@ -5589,46 +5589,46 @@
         <v>91.22261154552649</v>
       </c>
       <c r="I18" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J18" t="n">
-        <v>64.44012080218269</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K18" t="n">
-        <v>163.5609355829243</v>
+        <v>550.2116452123819</v>
       </c>
       <c r="L18" t="n">
-        <v>710.295586329509</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M18" t="n">
-        <v>1355.939888018875</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.58418970824</v>
+        <v>1575.303943659505</v>
       </c>
       <c r="O18" t="n">
-        <v>2207.528461692881</v>
+        <v>1891.805718929464</v>
       </c>
       <c r="P18" t="n">
-        <v>2353.483830085017</v>
+        <v>2353.039228275137</v>
       </c>
       <c r="Q18" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R18" t="n">
-        <v>2599.914592063507</v>
+        <v>2599.914592063508</v>
       </c>
       <c r="S18" t="n">
         <v>2454.146291745245</v>
       </c>
       <c r="T18" t="n">
-        <v>2257.959572345652</v>
+        <v>2257.959572345653</v>
       </c>
       <c r="U18" t="n">
         <v>2029.833884581089</v>
       </c>
       <c r="V18" t="n">
-        <v>1794.681776349346</v>
+        <v>1794.681776349347</v>
       </c>
       <c r="W18" t="n">
         <v>1540.444419621145</v>
@@ -5637,7 +5637,7 @@
         <v>1332.592919415612</v>
       </c>
       <c r="Y18" t="n">
-        <v>1124.832620650658</v>
+        <v>1124.832620650659</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>232.4654894772791</v>
+        <v>235.7410260424252</v>
       </c>
       <c r="C19" t="n">
-        <v>66.80484311451825</v>
+        <v>66.80484311451826</v>
       </c>
       <c r="D19" t="n">
-        <v>66.80484311451825</v>
+        <v>66.80484311451826</v>
       </c>
       <c r="E19" t="n">
-        <v>66.80484311451825</v>
+        <v>66.80484311451826</v>
       </c>
       <c r="F19" t="n">
-        <v>66.80484311451825</v>
+        <v>66.80484311451826</v>
       </c>
       <c r="G19" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="H19" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="I19" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J19" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="K19" t="n">
         <v>172.2297205752297</v>
       </c>
       <c r="L19" t="n">
-        <v>381.3870690902546</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M19" t="n">
         <v>612.3032901696347</v>
@@ -5698,25 +5698,25 @@
         <v>1202.737789815875</v>
       </c>
       <c r="S19" t="n">
-        <v>998.2066746543574</v>
+        <v>1152.015021443186</v>
       </c>
       <c r="T19" t="n">
-        <v>927.0990796879747</v>
+        <v>1080.907426476803</v>
       </c>
       <c r="U19" t="n">
-        <v>791.7643554365992</v>
+        <v>795.0398920017452</v>
       </c>
       <c r="V19" t="n">
-        <v>690.888214019541</v>
+        <v>694.163750584687</v>
       </c>
       <c r="W19" t="n">
-        <v>555.279390771409</v>
+        <v>558.554927336555</v>
       </c>
       <c r="X19" t="n">
-        <v>481.0981866622203</v>
+        <v>484.3737232273663</v>
       </c>
       <c r="Y19" t="n">
-        <v>414.1139543075188</v>
+        <v>263.5811440838363</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1384.453076831344</v>
+        <v>1384.453076831345</v>
       </c>
       <c r="C20" t="n">
-        <v>1169.298906679761</v>
+        <v>1169.298906679762</v>
       </c>
       <c r="D20" t="n">
-        <v>964.8415548618391</v>
+        <v>964.84155486184</v>
       </c>
       <c r="E20" t="n">
-        <v>732.8616490524236</v>
+        <v>732.8616490524246</v>
       </c>
       <c r="F20" t="n">
-        <v>475.6840910516447</v>
+        <v>475.6840910516455</v>
       </c>
       <c r="G20" t="n">
         <v>212.7768023476407</v>
       </c>
       <c r="H20" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I20" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J20" t="n">
-        <v>271.7700750181467</v>
+        <v>104.3644259977937</v>
       </c>
       <c r="K20" t="n">
-        <v>400.7295965957229</v>
+        <v>233.32394757537</v>
       </c>
       <c r="L20" t="n">
-        <v>597.6170483515886</v>
+        <v>638.0032238785477</v>
       </c>
       <c r="M20" t="n">
-        <v>1243.261350040954</v>
+        <v>1283.647525567914</v>
       </c>
       <c r="N20" t="n">
-        <v>1502.677132896557</v>
+        <v>1929.291827257279</v>
       </c>
       <c r="O20" t="n">
-        <v>2111.293018684234</v>
+        <v>2160.915533594838</v>
       </c>
       <c r="P20" t="n">
-        <v>2324.10000729115</v>
+        <v>2324.100007291151</v>
       </c>
       <c r="Q20" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R20" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="S20" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="T20" t="n">
-        <v>2549.30140056626</v>
+        <v>2549.301400566262</v>
       </c>
       <c r="U20" t="n">
-        <v>2449.447815801899</v>
+        <v>2449.4478158019</v>
       </c>
       <c r="V20" t="n">
-        <v>2272.193275247157</v>
+        <v>2272.193275247158</v>
       </c>
       <c r="W20" t="n">
-        <v>2073.232966765871</v>
+        <v>2073.232966765872</v>
       </c>
       <c r="X20" t="n">
-        <v>1853.57555529362</v>
+        <v>1853.575555293621</v>
       </c>
       <c r="Y20" t="n">
-        <v>1617.244570106637</v>
+        <v>1617.244570106638</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5805,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>956.6172836305898</v>
+        <v>956.6172836305906</v>
       </c>
       <c r="C21" t="n">
-        <v>782.1642543494628</v>
+        <v>782.1642543494636</v>
       </c>
       <c r="D21" t="n">
-        <v>633.2298446882115</v>
+        <v>633.2298446882123</v>
       </c>
       <c r="E21" t="n">
-        <v>473.992389682756</v>
+        <v>473.9923896827569</v>
       </c>
       <c r="F21" t="n">
-        <v>327.4578317096418</v>
+        <v>327.4578317096419</v>
       </c>
       <c r="G21" t="n">
         <v>190.2155498777789</v>
       </c>
       <c r="H21" t="n">
-        <v>91.22261154552649</v>
+        <v>91.22261154552652</v>
       </c>
       <c r="I21" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2702457891874</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K21" t="n">
-        <v>472.5142512257765</v>
+        <v>550.2116452123819</v>
       </c>
       <c r="L21" t="n">
-        <v>1019.248901972361</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M21" t="n">
-        <v>1248.193660113948</v>
+        <v>1436.448557385871</v>
       </c>
       <c r="N21" t="n">
-        <v>1893.837961803313</v>
+        <v>1685.861446944824</v>
       </c>
       <c r="O21" t="n">
-        <v>2099.782233787954</v>
+        <v>1891.805718929465</v>
       </c>
       <c r="P21" t="n">
-        <v>2561.015743133627</v>
+        <v>2353.039228275138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R21" t="n">
-        <v>2599.914592063507</v>
+        <v>2599.914592063508</v>
       </c>
       <c r="S21" t="n">
         <v>2454.146291745245</v>
       </c>
       <c r="T21" t="n">
-        <v>2257.959572345652</v>
+        <v>2257.959572345653</v>
       </c>
       <c r="U21" t="n">
         <v>2029.833884581089</v>
       </c>
       <c r="V21" t="n">
-        <v>1794.681776349346</v>
+        <v>1794.681776349347</v>
       </c>
       <c r="W21" t="n">
         <v>1540.444419621145</v>
@@ -5874,7 +5874,7 @@
         <v>1332.592919415612</v>
       </c>
       <c r="Y21" t="n">
-        <v>1124.832620650658</v>
+        <v>1124.832620650659</v>
       </c>
     </row>
     <row r="22">
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>383.6541196248182</v>
+        <v>386.273836266108</v>
       </c>
       <c r="C22" t="n">
-        <v>214.7179366969114</v>
+        <v>371.1460001270297</v>
       </c>
       <c r="D22" t="n">
-        <v>214.7179366969114</v>
+        <v>371.1460001270297</v>
       </c>
       <c r="E22" t="n">
-        <v>66.80484311451825</v>
+        <v>367.5031374012573</v>
       </c>
       <c r="F22" t="n">
-        <v>66.80484311451825</v>
+        <v>220.6131899033469</v>
       </c>
       <c r="G22" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="H22" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I22" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J22" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="K22" t="n">
         <v>172.2297205752297</v>
       </c>
       <c r="L22" t="n">
-        <v>381.3870690902546</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M22" t="n">
-        <v>612.3032901696347</v>
+        <v>612.3032901696348</v>
       </c>
       <c r="N22" t="n">
-        <v>843.163456056732</v>
+        <v>843.1634560567322</v>
       </c>
       <c r="O22" t="n">
-        <v>1040.3838895396</v>
+        <v>1040.383889539601</v>
       </c>
       <c r="P22" t="n">
         <v>1185.619359038021</v>
@@ -5935,25 +5935,25 @@
         <v>1202.737789815875</v>
       </c>
       <c r="S22" t="n">
-        <v>1152.015021443186</v>
+        <v>998.2066746543576</v>
       </c>
       <c r="T22" t="n">
-        <v>1080.907426476803</v>
+        <v>927.0990796879749</v>
       </c>
       <c r="U22" t="n">
-        <v>791.7643554365991</v>
+        <v>791.7643554365994</v>
       </c>
       <c r="V22" t="n">
-        <v>690.8882140195409</v>
+        <v>690.8882140195412</v>
       </c>
       <c r="W22" t="n">
-        <v>552.6596741301195</v>
+        <v>555.2793907714092</v>
       </c>
       <c r="X22" t="n">
-        <v>478.4784700209308</v>
+        <v>481.0981866622205</v>
       </c>
       <c r="Y22" t="n">
-        <v>411.4942376662293</v>
+        <v>414.1139543075191</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1169.298906679762</v>
       </c>
       <c r="D23" t="n">
-        <v>964.8415548618397</v>
+        <v>964.8415548618398</v>
       </c>
       <c r="E23" t="n">
         <v>732.8616490524241</v>
@@ -5987,28 +5987,28 @@
         <v>52.17327690419118</v>
       </c>
       <c r="J23" t="n">
-        <v>104.3644259977937</v>
+        <v>271.7700750181467</v>
       </c>
       <c r="K23" t="n">
-        <v>554.227906020823</v>
+        <v>624.0515293048044</v>
       </c>
       <c r="L23" t="n">
-        <v>1164.599960181635</v>
+        <v>1234.423583465616</v>
       </c>
       <c r="M23" t="n">
-        <v>1810.244261871</v>
+        <v>1880.067885154982</v>
       </c>
       <c r="N23" t="n">
-        <v>2069.660044726604</v>
+        <v>2139.483668010585</v>
       </c>
       <c r="O23" t="n">
-        <v>2301.283751064162</v>
+        <v>2371.107374348143</v>
       </c>
       <c r="P23" t="n">
-        <v>2511.380213845376</v>
+        <v>2534.291848044456</v>
       </c>
       <c r="Q23" t="n">
-        <v>2585.752211010479</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R23" t="n">
         <v>2608.663845209559</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.6172836305909</v>
+        <v>956.61728363059</v>
       </c>
       <c r="C24" t="n">
-        <v>782.1642543494639</v>
+        <v>782.164254349463</v>
       </c>
       <c r="D24" t="n">
-        <v>633.2298446882128</v>
+        <v>633.2298446882119</v>
       </c>
       <c r="E24" t="n">
-        <v>473.9923896827572</v>
+        <v>473.9923896827563</v>
       </c>
       <c r="F24" t="n">
-        <v>327.4578317096423</v>
+        <v>327.4578317096414</v>
       </c>
       <c r="G24" t="n">
-        <v>190.2155498777793</v>
+        <v>190.2155498777789</v>
       </c>
       <c r="H24" t="n">
         <v>91.22261154552652</v>
@@ -6075,43 +6075,43 @@
         <v>1096.946295958967</v>
       </c>
       <c r="M24" t="n">
-        <v>1742.590597648333</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N24" t="n">
-        <v>1992.003487207285</v>
+        <v>1575.303943659505</v>
       </c>
       <c r="O24" t="n">
-        <v>2415.060374741493</v>
+        <v>1891.805718929465</v>
       </c>
       <c r="P24" t="n">
-        <v>2561.015743133628</v>
+        <v>2353.039228275138</v>
       </c>
       <c r="Q24" t="n">
         <v>2608.663845209559</v>
       </c>
       <c r="R24" t="n">
-        <v>2599.914592063509</v>
+        <v>2599.914592063508</v>
       </c>
       <c r="S24" t="n">
-        <v>2454.146291745246</v>
+        <v>2454.146291745245</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.959572345654</v>
+        <v>2257.959572345653</v>
       </c>
       <c r="U24" t="n">
-        <v>2029.83388458109</v>
+        <v>2029.833884581089</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.681776349348</v>
+        <v>1794.681776349347</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.444419621146</v>
+        <v>1540.444419621145</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.592919415613</v>
+        <v>1332.592919415612</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.832620650659</v>
+        <v>1124.832620650658</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>417.1100917653343</v>
+        <v>263.3017449765059</v>
       </c>
       <c r="C25" t="n">
-        <v>401.9822556262561</v>
+        <v>248.1739088374277</v>
       </c>
       <c r="D25" t="n">
-        <v>401.9822556262561</v>
+        <v>248.1739088374277</v>
       </c>
       <c r="E25" t="n">
-        <v>254.0691620438629</v>
+        <v>225.6478039031162</v>
       </c>
       <c r="F25" t="n">
-        <v>107.1792145459526</v>
+        <v>225.6478039031162</v>
       </c>
       <c r="G25" t="n">
-        <v>92.5476483356255</v>
+        <v>211.0162376927891</v>
       </c>
       <c r="H25" t="n">
-        <v>92.5476483356255</v>
+        <v>58.24577187746996</v>
       </c>
       <c r="I25" t="n">
-        <v>52.17327690419118</v>
+        <v>58.24577187746996</v>
       </c>
       <c r="J25" t="n">
         <v>52.17327690419118</v>
@@ -6154,13 +6154,13 @@
         <v>381.3870690902547</v>
       </c>
       <c r="M25" t="n">
-        <v>612.3032901696347</v>
+        <v>612.3032901696348</v>
       </c>
       <c r="N25" t="n">
-        <v>843.163456056732</v>
+        <v>843.1634560567322</v>
       </c>
       <c r="O25" t="n">
-        <v>1040.3838895396</v>
+        <v>1040.383889539601</v>
       </c>
       <c r="P25" t="n">
         <v>1185.619359038021</v>
@@ -6172,25 +6172,25 @@
         <v>1079.765698526273</v>
       </c>
       <c r="S25" t="n">
-        <v>1029.042930153584</v>
+        <v>875.2345833647555</v>
       </c>
       <c r="T25" t="n">
-        <v>957.9353351872013</v>
+        <v>804.1269883983729</v>
       </c>
       <c r="U25" t="n">
-        <v>822.6006109358258</v>
+        <v>668.7922641469974</v>
       </c>
       <c r="V25" t="n">
-        <v>721.7244695187676</v>
+        <v>567.9161227299392</v>
       </c>
       <c r="W25" t="n">
-        <v>586.1156462706356</v>
+        <v>432.3072994818071</v>
       </c>
       <c r="X25" t="n">
-        <v>511.9344421614469</v>
+        <v>358.1260953726185</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9502098067454</v>
+        <v>291.141863017917</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>1868.376552566036</v>
       </c>
       <c r="C26" t="n">
-        <v>1580.201569095985</v>
+        <v>1580.201569095986</v>
       </c>
       <c r="D26" t="n">
-        <v>1302.723403959595</v>
+        <v>1302.723403959596</v>
       </c>
       <c r="E26" t="n">
-        <v>997.7226848317116</v>
+        <v>997.7226848317124</v>
       </c>
       <c r="F26" t="n">
-        <v>667.5243135124647</v>
+        <v>667.5243135124656</v>
       </c>
       <c r="G26" t="n">
-        <v>331.596211489993</v>
+        <v>331.5962114899932</v>
       </c>
       <c r="H26" t="n">
-        <v>97.97187272807565</v>
+        <v>97.97187272807571</v>
       </c>
       <c r="I26" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J26" t="n">
-        <v>125.6047537948396</v>
+        <v>293.0104028151927</v>
       </c>
       <c r="K26" t="n">
-        <v>575.4682338178688</v>
+        <v>421.969924392769</v>
       </c>
       <c r="L26" t="n">
-        <v>1185.84028797868</v>
+        <v>1032.341978553581</v>
       </c>
       <c r="M26" t="n">
         <v>1580.434444347145</v>
@@ -6239,37 +6239,37 @@
         <v>2272.823682370612</v>
       </c>
       <c r="O26" t="n">
-        <v>2881.439568158288</v>
+        <v>2881.439568158289</v>
       </c>
       <c r="P26" t="n">
-        <v>3363.204762944368</v>
+        <v>3363.204762944369</v>
       </c>
       <c r="Q26" t="n">
         <v>3647.768600862777</v>
       </c>
       <c r="R26" t="n">
-        <v>3670.680235061856</v>
+        <v>3670.680235061857</v>
       </c>
       <c r="S26" t="n">
-        <v>3603.733014173525</v>
+        <v>3603.733014173526</v>
       </c>
       <c r="T26" t="n">
-        <v>3471.349756211759</v>
+        <v>3471.34975621176</v>
       </c>
       <c r="U26" t="n">
-        <v>3298.47535812893</v>
+        <v>3298.475358128931</v>
       </c>
       <c r="V26" t="n">
-        <v>3048.20000425572</v>
+        <v>3048.200004255721</v>
       </c>
       <c r="W26" t="n">
-        <v>2776.218882455967</v>
+        <v>2776.218882455968</v>
       </c>
       <c r="X26" t="n">
-        <v>2483.540657665248</v>
+        <v>2483.540657665249</v>
       </c>
       <c r="Y26" t="n">
-        <v>2174.188859159797</v>
+        <v>2174.188859159798</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>112.4629393425725</v>
       </c>
       <c r="I27" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J27" t="n">
-        <v>85.68044859922865</v>
+        <v>210.5105735862334</v>
       </c>
       <c r="K27" t="n">
-        <v>184.8012633799702</v>
+        <v>571.4519730094279</v>
       </c>
       <c r="L27" t="n">
-        <v>731.535914126555</v>
+        <v>1118.186623756013</v>
       </c>
       <c r="M27" t="n">
-        <v>960.4806722681415</v>
+        <v>1383.043330052493</v>
       </c>
       <c r="N27" t="n">
-        <v>1684.442512427212</v>
+        <v>1632.456219611445</v>
       </c>
       <c r="O27" t="n">
         <v>2228.324187680048</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.4586865960921</v>
+        <v>562.4586865960925</v>
       </c>
       <c r="C28" t="n">
-        <v>474.3100371385459</v>
+        <v>474.3100371385463</v>
       </c>
       <c r="D28" t="n">
-        <v>404.980931196571</v>
+        <v>404.9809311965713</v>
       </c>
       <c r="E28" t="n">
-        <v>337.8553710845387</v>
+        <v>337.8553710845389</v>
       </c>
       <c r="F28" t="n">
-        <v>271.7529570569891</v>
+        <v>271.7529570569893</v>
       </c>
       <c r="G28" t="n">
-        <v>184.1005775281942</v>
+        <v>184.1005775281943</v>
       </c>
       <c r="H28" t="n">
-        <v>112.1176451832358</v>
+        <v>112.1176451832359</v>
       </c>
       <c r="I28" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J28" t="n">
-        <v>146.6418139322272</v>
+        <v>146.6418139322271</v>
       </c>
       <c r="K28" t="n">
-        <v>345.8781191575663</v>
+        <v>345.8781191575665</v>
       </c>
       <c r="L28" t="n">
-        <v>634.2153292268918</v>
+        <v>634.215329226892</v>
       </c>
       <c r="M28" t="n">
         <v>944.3114118605725</v>
@@ -6421,13 +6421,13 @@
         <v>1159.156317623397</v>
       </c>
       <c r="W28" t="n">
-        <v>950.5266810567969</v>
+        <v>950.5266810567972</v>
       </c>
       <c r="X28" t="n">
-        <v>803.3246636291403</v>
+        <v>803.3246636291406</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.319617955971</v>
+        <v>663.3196179559716</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1868.376552566037</v>
+        <v>1868.376552566036</v>
       </c>
       <c r="C29" t="n">
-        <v>1580.201569095986</v>
+        <v>1580.201569095985</v>
       </c>
       <c r="D29" t="n">
         <v>1302.723403959596</v>
       </c>
       <c r="E29" t="n">
-        <v>997.7226848317127</v>
+        <v>997.7226848317119</v>
       </c>
       <c r="F29" t="n">
-        <v>667.5243135124661</v>
+        <v>667.5243135124651</v>
       </c>
       <c r="G29" t="n">
-        <v>331.5962114899935</v>
+        <v>331.5962114899931</v>
       </c>
       <c r="H29" t="n">
-        <v>97.97187272807565</v>
+        <v>97.9718727280757</v>
       </c>
       <c r="I29" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J29" t="n">
-        <v>201.4280277824525</v>
+        <v>293.0104028151927</v>
       </c>
       <c r="K29" t="n">
-        <v>651.2915078054818</v>
+        <v>742.873882838222</v>
       </c>
       <c r="L29" t="n">
-        <v>1261.663561966293</v>
+        <v>1203.252103605944</v>
       </c>
       <c r="M29" t="n">
-        <v>1957.426623797262</v>
+        <v>1899.015165436913</v>
       </c>
       <c r="N29" t="n">
-        <v>2649.81586182073</v>
+        <v>2591.40440346038</v>
       </c>
       <c r="O29" t="n">
-        <v>2881.439568158288</v>
+        <v>3200.020289248057</v>
       </c>
       <c r="P29" t="n">
-        <v>3363.204762944368</v>
+        <v>3363.204762944369</v>
       </c>
       <c r="Q29" t="n">
         <v>3647.768600862777</v>
       </c>
       <c r="R29" t="n">
-        <v>3670.680235061856</v>
+        <v>3670.680235061857</v>
       </c>
       <c r="S29" t="n">
         <v>3603.733014173526</v>
@@ -6500,13 +6500,13 @@
         <v>3048.200004255721</v>
       </c>
       <c r="W29" t="n">
-        <v>2776.218882455968</v>
+        <v>2776.218882455967</v>
       </c>
       <c r="X29" t="n">
-        <v>2483.540657665249</v>
+        <v>2483.540657665248</v>
       </c>
       <c r="Y29" t="n">
-        <v>2174.188859159798</v>
+        <v>2174.188859159797</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>112.4629393425725</v>
       </c>
       <c r="I30" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J30" t="n">
-        <v>85.68044859922865</v>
+        <v>210.5105735862334</v>
       </c>
       <c r="K30" t="n">
-        <v>446.621848022423</v>
+        <v>571.4519730094279</v>
       </c>
       <c r="L30" t="n">
-        <v>754.1951764412131</v>
+        <v>1118.186623756013</v>
       </c>
       <c r="M30" t="n">
-        <v>983.1399345827996</v>
+        <v>1457.688885182918</v>
       </c>
       <c r="N30" t="n">
         <v>1707.10177474187</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.4586865960921</v>
+        <v>562.4586865960923</v>
       </c>
       <c r="C31" t="n">
-        <v>474.3100371385459</v>
+        <v>474.3100371385461</v>
       </c>
       <c r="D31" t="n">
-        <v>404.980931196571</v>
+        <v>404.9809311965712</v>
       </c>
       <c r="E31" t="n">
-        <v>337.8553710845387</v>
+        <v>337.8553710845388</v>
       </c>
       <c r="F31" t="n">
-        <v>271.7529570569891</v>
+        <v>271.7529570569892</v>
       </c>
       <c r="G31" t="n">
         <v>184.1005775281942</v>
@@ -6616,28 +6616,28 @@
         <v>112.1176451832358</v>
       </c>
       <c r="I31" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J31" t="n">
-        <v>146.6418139322272</v>
+        <v>146.6418139322271</v>
       </c>
       <c r="K31" t="n">
-        <v>345.8781191575663</v>
+        <v>345.8781191575662</v>
       </c>
       <c r="L31" t="n">
-        <v>634.2153292268919</v>
+        <v>634.2153292268918</v>
       </c>
       <c r="M31" t="n">
-        <v>944.3114118605727</v>
+        <v>944.3114118605723</v>
       </c>
       <c r="N31" t="n">
         <v>1254.35143930197</v>
       </c>
       <c r="O31" t="n">
-        <v>1530.75173433914</v>
+        <v>1530.751734339139</v>
       </c>
       <c r="P31" t="n">
-        <v>1755.167065391861</v>
+        <v>1755.16706539186</v>
       </c>
       <c r="Q31" t="n">
         <v>1851.465357724015</v>
@@ -6658,13 +6658,13 @@
         <v>1159.156317623397</v>
       </c>
       <c r="W31" t="n">
-        <v>950.5266810567969</v>
+        <v>950.5266810567971</v>
       </c>
       <c r="X31" t="n">
-        <v>803.3246636291403</v>
+        <v>803.3246636291406</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.319617955971</v>
+        <v>663.3196179559712</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1868.376552566035</v>
+        <v>1868.376552566037</v>
       </c>
       <c r="C32" t="n">
-        <v>1580.201569095984</v>
+        <v>1580.201569095986</v>
       </c>
       <c r="D32" t="n">
-        <v>1302.723403959595</v>
+        <v>1302.723403959596</v>
       </c>
       <c r="E32" t="n">
-        <v>997.7226848317111</v>
+        <v>997.7226848317123</v>
       </c>
       <c r="F32" t="n">
-        <v>667.5243135124642</v>
+        <v>667.5243135124654</v>
       </c>
       <c r="G32" t="n">
-        <v>331.596211489993</v>
+        <v>331.5962114899933</v>
       </c>
       <c r="H32" t="n">
-        <v>97.97187272807565</v>
+        <v>97.97187272807572</v>
       </c>
       <c r="I32" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J32" t="n">
         <v>293.0104028151927</v>
       </c>
       <c r="K32" t="n">
-        <v>421.9699243927689</v>
+        <v>742.873882838222</v>
       </c>
       <c r="L32" t="n">
-        <v>1032.34197855358</v>
+        <v>1317.64483768404</v>
       </c>
       <c r="M32" t="n">
-        <v>1728.10504038455</v>
+        <v>2013.407899515009</v>
       </c>
       <c r="N32" t="n">
-        <v>2420.494278408017</v>
+        <v>2272.823682370612</v>
       </c>
       <c r="O32" t="n">
-        <v>2881.439568158288</v>
+        <v>2881.439568158289</v>
       </c>
       <c r="P32" t="n">
-        <v>3363.204762944368</v>
+        <v>3363.204762944369</v>
       </c>
       <c r="Q32" t="n">
         <v>3647.768600862777</v>
       </c>
       <c r="R32" t="n">
-        <v>3670.680235061856</v>
+        <v>3670.680235061857</v>
       </c>
       <c r="S32" t="n">
-        <v>3603.733014173525</v>
+        <v>3603.733014173526</v>
       </c>
       <c r="T32" t="n">
-        <v>3471.349756211759</v>
+        <v>3471.34975621176</v>
       </c>
       <c r="U32" t="n">
-        <v>3298.47535812893</v>
+        <v>3298.475358128931</v>
       </c>
       <c r="V32" t="n">
-        <v>3048.20000425572</v>
+        <v>3048.200004255722</v>
       </c>
       <c r="W32" t="n">
-        <v>2776.218882455966</v>
+        <v>2776.218882455968</v>
       </c>
       <c r="X32" t="n">
-        <v>2483.540657665247</v>
+        <v>2483.540657665249</v>
       </c>
       <c r="Y32" t="n">
-        <v>2174.188859159796</v>
+        <v>2174.188859159798</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>112.4629393425725</v>
       </c>
       <c r="I33" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J33" t="n">
         <v>210.5105735862334</v>
       </c>
       <c r="K33" t="n">
-        <v>571.4519730094278</v>
+        <v>571.4519730094279</v>
       </c>
       <c r="L33" t="n">
-        <v>767.6961139288312</v>
+        <v>1118.186623756013</v>
       </c>
       <c r="M33" t="n">
-        <v>1457.688885182918</v>
+        <v>1347.131381897599</v>
       </c>
       <c r="N33" t="n">
-        <v>1707.10177474187</v>
+        <v>1596.544271456551</v>
       </c>
       <c r="O33" t="n">
         <v>1913.046046726511</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.4586865960921</v>
+        <v>562.4586865960925</v>
       </c>
       <c r="C34" t="n">
-        <v>474.3100371385459</v>
+        <v>474.3100371385463</v>
       </c>
       <c r="D34" t="n">
-        <v>404.980931196571</v>
+        <v>404.9809311965713</v>
       </c>
       <c r="E34" t="n">
-        <v>337.8553710845387</v>
+        <v>337.8553710845389</v>
       </c>
       <c r="F34" t="n">
-        <v>271.7529570569891</v>
+        <v>271.7529570569893</v>
       </c>
       <c r="G34" t="n">
-        <v>184.1005775281942</v>
+        <v>184.1005775281943</v>
       </c>
       <c r="H34" t="n">
-        <v>112.1176451832358</v>
+        <v>112.1176451832359</v>
       </c>
       <c r="I34" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J34" t="n">
-        <v>146.6418139322272</v>
+        <v>146.6418139322271</v>
       </c>
       <c r="K34" t="n">
-        <v>345.8781191575661</v>
+        <v>345.8781191575662</v>
       </c>
       <c r="L34" t="n">
-        <v>634.2153292268916</v>
+        <v>634.2153292268918</v>
       </c>
       <c r="M34" t="n">
-        <v>944.3114118605723</v>
+        <v>944.3114118605724</v>
       </c>
       <c r="N34" t="n">
         <v>1254.35143930197</v>
       </c>
       <c r="O34" t="n">
-        <v>1530.751734339139</v>
+        <v>1530.75173433914</v>
       </c>
       <c r="P34" t="n">
         <v>1755.16706539186</v>
       </c>
       <c r="Q34" t="n">
-        <v>1851.465357724015</v>
+        <v>1851.465357724016</v>
       </c>
       <c r="R34" t="n">
-        <v>1809.280799904773</v>
+        <v>1809.280799904774</v>
       </c>
       <c r="S34" t="n">
-        <v>1685.537218213617</v>
+        <v>1685.537218213618</v>
       </c>
       <c r="T34" t="n">
-        <v>1541.408809928766</v>
+        <v>1541.408809928767</v>
       </c>
       <c r="U34" t="n">
-        <v>1333.053272358923</v>
+        <v>1333.053272358924</v>
       </c>
       <c r="V34" t="n">
-        <v>1159.156317623397</v>
+        <v>1159.156317623398</v>
       </c>
       <c r="W34" t="n">
-        <v>950.5266810567969</v>
+        <v>950.5266810567977</v>
       </c>
       <c r="X34" t="n">
-        <v>803.3246636291403</v>
+        <v>803.324663629141</v>
       </c>
       <c r="Y34" t="n">
-        <v>663.319617955971</v>
+        <v>663.3196179559716</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1688.950839227094</v>
+        <v>1688.950839227093</v>
       </c>
       <c r="C35" t="n">
         <v>1425.334123783881</v>
       </c>
       <c r="D35" t="n">
-        <v>1172.41422667433</v>
+        <v>1172.414226674329</v>
       </c>
       <c r="E35" t="n">
-        <v>891.9717755732851</v>
+        <v>891.9717755732847</v>
       </c>
       <c r="F35" t="n">
         <v>586.3316722808768</v>
@@ -6929,37 +6929,37 @@
         <v>274.9618382852429</v>
       </c>
       <c r="H35" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="I35" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J35" t="n">
-        <v>258.509625396666</v>
+        <v>285.4925656641196</v>
       </c>
       <c r="K35" t="n">
-        <v>708.3731054196953</v>
+        <v>735.3560456871489</v>
       </c>
       <c r="L35" t="n">
-        <v>1318.745159580507</v>
+        <v>941.7529801303892</v>
       </c>
       <c r="M35" t="n">
-        <v>2014.508221411476</v>
+        <v>1637.516041961358</v>
       </c>
       <c r="N35" t="n">
-        <v>2273.924004267079</v>
+        <v>1896.931824816962</v>
       </c>
       <c r="O35" t="n">
-        <v>2505.547710604637</v>
+        <v>2505.547710604638</v>
       </c>
       <c r="P35" t="n">
-        <v>2987.312905390717</v>
+        <v>2987.312905390718</v>
       </c>
       <c r="Q35" t="n">
-        <v>3271.876743309126</v>
+        <v>3271.876743309127</v>
       </c>
       <c r="R35" t="n">
-        <v>3294.788377508205</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="S35" t="n">
         <v>3252.399424646713</v>
@@ -6977,7 +6977,7 @@
         <v>2523.118365036509</v>
       </c>
       <c r="X35" t="n">
-        <v>2254.998408272629</v>
+        <v>2254.998408272628</v>
       </c>
       <c r="Y35" t="n">
         <v>1970.204877794016</v>
@@ -7011,25 +7011,25 @@
         <v>104.9451021914994</v>
       </c>
       <c r="I36" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J36" t="n">
         <v>202.9927364351604</v>
       </c>
       <c r="K36" t="n">
-        <v>563.9341358583547</v>
+        <v>563.9341358583548</v>
       </c>
       <c r="L36" t="n">
-        <v>743.5368447545147</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M36" t="n">
-        <v>1433.529616008601</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N36" t="n">
-        <v>1682.942505567553</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O36" t="n">
-        <v>2220.806350528976</v>
+        <v>1905.528209575438</v>
       </c>
       <c r="P36" t="n">
         <v>2366.761718921111</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>383.0329732571495</v>
+        <v>383.0329732571496</v>
       </c>
       <c r="C37" t="n">
-        <v>319.4425918264419</v>
+        <v>319.442591826442</v>
       </c>
       <c r="D37" t="n">
-        <v>274.6717539113054</v>
+        <v>274.6717539113055</v>
       </c>
       <c r="E37" t="n">
-        <v>232.1044618261116</v>
+        <v>232.1044618261117</v>
       </c>
       <c r="F37" t="n">
         <v>190.5603158254006</v>
@@ -7087,31 +7087,31 @@
         <v>127.4662043234441</v>
       </c>
       <c r="H37" t="n">
-        <v>80.04154000532425</v>
+        <v>80.04154000532426</v>
       </c>
       <c r="I37" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J37" t="n">
-        <v>65.89576755016411</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="K37" t="n">
-        <v>214.0083228080704</v>
+        <v>185.9522112212026</v>
       </c>
       <c r="L37" t="n">
-        <v>423.1656713230954</v>
+        <v>395.1095597362277</v>
       </c>
       <c r="M37" t="n">
-        <v>654.0818924024754</v>
+        <v>729.2752008630127</v>
       </c>
       <c r="N37" t="n">
-        <v>884.9420582895727</v>
+        <v>1063.384786797515</v>
       </c>
       <c r="O37" t="n">
-        <v>1185.411911819846</v>
+        <v>1260.605220280383</v>
       </c>
       <c r="P37" t="n">
-        <v>1433.896801365672</v>
+        <v>1405.840689778804</v>
       </c>
       <c r="Q37" t="n">
         <v>1451.015232143526</v>
@@ -7129,16 +7129,16 @@
         <v>1030.836218885788</v>
       </c>
       <c r="V37" t="n">
-        <v>881.4975321771001</v>
+        <v>881.4975321771002</v>
       </c>
       <c r="W37" t="n">
-        <v>697.4261636373387</v>
+        <v>697.4261636373388</v>
       </c>
       <c r="X37" t="n">
-        <v>574.7824142365207</v>
+        <v>574.7824142365208</v>
       </c>
       <c r="Y37" t="n">
-        <v>459.3356365901899</v>
+        <v>459.33563659019</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1688.950839227093</v>
+        <v>1688.950839227094</v>
       </c>
       <c r="C38" t="n">
         <v>1425.334123783881</v>
@@ -7157,64 +7157,64 @@
         <v>1172.41422667433</v>
       </c>
       <c r="E38" t="n">
-        <v>891.9717755732847</v>
+        <v>891.9717755732851</v>
       </c>
       <c r="F38" t="n">
-        <v>586.3316722808765</v>
+        <v>586.3316722808768</v>
       </c>
       <c r="G38" t="n">
         <v>274.9618382852429</v>
       </c>
       <c r="H38" t="n">
-        <v>65.89576755016409</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="I38" t="n">
-        <v>65.89576755016409</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J38" t="n">
-        <v>118.0869166437666</v>
+        <v>285.4925656641196</v>
       </c>
       <c r="K38" t="n">
-        <v>567.9503966667959</v>
+        <v>735.3560456871489</v>
       </c>
       <c r="L38" t="n">
-        <v>953.7979231204278</v>
+        <v>1345.72809984796</v>
       </c>
       <c r="M38" t="n">
-        <v>1204.542586793493</v>
+        <v>1596.472763521026</v>
       </c>
       <c r="N38" t="n">
-        <v>1896.93182481696</v>
+        <v>1919.843459016041</v>
       </c>
       <c r="O38" t="n">
-        <v>2505.547710604636</v>
+        <v>2528.459344803717</v>
       </c>
       <c r="P38" t="n">
-        <v>2987.312905390717</v>
+        <v>3010.224539589798</v>
       </c>
       <c r="Q38" t="n">
-        <v>3271.876743309125</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="R38" t="n">
-        <v>3294.788377508205</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="S38" t="n">
-        <v>3252.399424646712</v>
+        <v>3252.399424646713</v>
       </c>
       <c r="T38" t="n">
-        <v>3144.574434711785</v>
+        <v>3144.574434711786</v>
       </c>
       <c r="U38" t="n">
-        <v>2996.258304655795</v>
+        <v>2996.258304655796</v>
       </c>
       <c r="V38" t="n">
-        <v>2770.541218809423</v>
+        <v>2770.541218809424</v>
       </c>
       <c r="W38" t="n">
-        <v>2523.118365036508</v>
+        <v>2523.118365036509</v>
       </c>
       <c r="X38" t="n">
-        <v>2254.998408272628</v>
+        <v>2254.998408272629</v>
       </c>
       <c r="Y38" t="n">
         <v>1970.204877794016</v>
@@ -7239,37 +7239,37 @@
         <v>487.7148803287298</v>
       </c>
       <c r="F39" t="n">
-        <v>341.1803223556147</v>
+        <v>341.1803223556148</v>
       </c>
       <c r="G39" t="n">
-        <v>203.9380405237518</v>
+        <v>203.9380405237519</v>
       </c>
       <c r="H39" t="n">
         <v>104.9451021914994</v>
       </c>
       <c r="I39" t="n">
-        <v>65.89576755016409</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J39" t="n">
         <v>202.9927364351604</v>
       </c>
       <c r="K39" t="n">
-        <v>563.9341358583547</v>
+        <v>563.9341358583548</v>
       </c>
       <c r="L39" t="n">
-        <v>893.5092365058247</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M39" t="n">
-        <v>1583.502007759911</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N39" t="n">
-        <v>1832.914897318863</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O39" t="n">
-        <v>2428.782865387466</v>
+        <v>1905.528209575438</v>
       </c>
       <c r="P39" t="n">
-        <v>2574.738233779602</v>
+        <v>2366.761718921111</v>
       </c>
       <c r="Q39" t="n">
         <v>2622.386335855532</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>383.0329732571492</v>
+        <v>383.0329732571496</v>
       </c>
       <c r="C40" t="n">
-        <v>319.4425918264416</v>
+        <v>319.442591826442</v>
       </c>
       <c r="D40" t="n">
-        <v>274.6717539113052</v>
+        <v>274.6717539113055</v>
       </c>
       <c r="E40" t="n">
-        <v>232.1044618261114</v>
+        <v>232.1044618261117</v>
       </c>
       <c r="F40" t="n">
-        <v>190.5603158254004</v>
+        <v>190.5603158254006</v>
       </c>
       <c r="G40" t="n">
-        <v>127.466204323444</v>
+        <v>127.4662043234441</v>
       </c>
       <c r="H40" t="n">
-        <v>80.04154000532419</v>
+        <v>80.04154000532426</v>
       </c>
       <c r="I40" t="n">
-        <v>65.89576755016409</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J40" t="n">
-        <v>65.89576755016409</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="K40" t="n">
-        <v>185.9522112212026</v>
+        <v>214.0083228080704</v>
       </c>
       <c r="L40" t="n">
-        <v>498.3589797836327</v>
+        <v>526.4150913705004</v>
       </c>
       <c r="M40" t="n">
-        <v>729.2752008630127</v>
+        <v>757.3313124498804</v>
       </c>
       <c r="N40" t="n">
-        <v>988.1914783369771</v>
+        <v>988.1914783369778</v>
       </c>
       <c r="O40" t="n">
-        <v>1185.411911819845</v>
+        <v>1288.661331867251</v>
       </c>
       <c r="P40" t="n">
-        <v>1433.896801365671</v>
+        <v>1433.896801365672</v>
       </c>
       <c r="Q40" t="n">
-        <v>1451.015232143525</v>
+        <v>1451.015232143526</v>
       </c>
       <c r="R40" t="n">
-        <v>1433.388942351122</v>
+        <v>1433.388942351123</v>
       </c>
       <c r="S40" t="n">
-        <v>1334.203628686804</v>
+        <v>1334.203628686805</v>
       </c>
       <c r="T40" t="n">
-        <v>1214.633488428792</v>
+        <v>1214.633488428793</v>
       </c>
       <c r="U40" t="n">
-        <v>1030.836218885787</v>
+        <v>1030.836218885788</v>
       </c>
       <c r="V40" t="n">
-        <v>881.4975321770996</v>
+        <v>881.4975321771002</v>
       </c>
       <c r="W40" t="n">
-        <v>697.4261636373384</v>
+        <v>697.4261636373388</v>
       </c>
       <c r="X40" t="n">
-        <v>574.7824142365204</v>
+        <v>574.7824142365208</v>
       </c>
       <c r="Y40" t="n">
-        <v>459.3356365901896</v>
+        <v>459.33563659019</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>586.3316722808763</v>
       </c>
       <c r="G41" t="n">
-        <v>274.9618382852429</v>
+        <v>274.9618382852428</v>
       </c>
       <c r="H41" t="n">
         <v>65.89576755016409</v>
@@ -7409,19 +7409,19 @@
         <v>65.89576755016409</v>
       </c>
       <c r="J41" t="n">
-        <v>118.0869166437666</v>
+        <v>285.4925656641196</v>
       </c>
       <c r="K41" t="n">
-        <v>567.9503966667959</v>
+        <v>735.3560456871489</v>
       </c>
       <c r="L41" t="n">
-        <v>885.7717044126415</v>
+        <v>1345.72809984796</v>
       </c>
       <c r="M41" t="n">
-        <v>1581.534766243611</v>
+        <v>1596.472763521026</v>
       </c>
       <c r="N41" t="n">
-        <v>2273.924004267078</v>
+        <v>1896.93182481696</v>
       </c>
       <c r="O41" t="n">
         <v>2505.547710604636</v>
@@ -7442,10 +7442,10 @@
         <v>3144.574434711785</v>
       </c>
       <c r="U41" t="n">
-        <v>2996.258304655795</v>
+        <v>2996.258304655794</v>
       </c>
       <c r="V41" t="n">
-        <v>2770.541218809423</v>
+        <v>2770.541218809422</v>
       </c>
       <c r="W41" t="n">
         <v>2523.118365036508</v>
@@ -7488,25 +7488,25 @@
         <v>65.89576755016409</v>
       </c>
       <c r="J42" t="n">
-        <v>78.16261144815562</v>
+        <v>202.9927364351604</v>
       </c>
       <c r="K42" t="n">
-        <v>177.2834262288972</v>
+        <v>563.9341358583548</v>
       </c>
       <c r="L42" t="n">
-        <v>724.0180769754819</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M42" t="n">
-        <v>1414.010848229568</v>
+        <v>1450.171048031845</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.42373778852</v>
+        <v>1699.583937590797</v>
       </c>
       <c r="O42" t="n">
-        <v>2259.291705857123</v>
+        <v>1905.528209575438</v>
       </c>
       <c r="P42" t="n">
-        <v>2405.247074249259</v>
+        <v>2366.761718921111</v>
       </c>
       <c r="Q42" t="n">
         <v>2622.386335855532</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>383.0329732571492</v>
+        <v>383.0329732571487</v>
       </c>
       <c r="C43" t="n">
-        <v>319.4425918264416</v>
+        <v>319.4425918264412</v>
       </c>
       <c r="D43" t="n">
-        <v>274.6717539113052</v>
+        <v>274.6717539113049</v>
       </c>
       <c r="E43" t="n">
-        <v>232.1044618261115</v>
+        <v>232.1044618261112</v>
       </c>
       <c r="F43" t="n">
-        <v>190.5603158254004</v>
+        <v>190.5603158254002</v>
       </c>
       <c r="G43" t="n">
-        <v>127.466204323444</v>
+        <v>127.4662043234439</v>
       </c>
       <c r="H43" t="n">
-        <v>80.04154000532421</v>
+        <v>80.04154000532412</v>
       </c>
       <c r="I43" t="n">
         <v>65.89576755016409</v>
       </c>
       <c r="J43" t="n">
-        <v>163.1935352742586</v>
+        <v>163.1935352742587</v>
       </c>
       <c r="K43" t="n">
-        <v>283.2499789452971</v>
+        <v>317.2577428554735</v>
       </c>
       <c r="L43" t="n">
-        <v>595.6567475077271</v>
+        <v>526.4150913704984</v>
       </c>
       <c r="M43" t="n">
-        <v>826.5729685871072</v>
+        <v>860.5807324972836</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.433134474205</v>
+        <v>1091.440898384381</v>
       </c>
       <c r="O43" t="n">
-        <v>1254.653567957073</v>
+        <v>1288.661331867249</v>
       </c>
       <c r="P43" t="n">
-        <v>1399.889037455493</v>
+        <v>1433.89680136567</v>
       </c>
       <c r="Q43" t="n">
-        <v>1451.015232143525</v>
+        <v>1451.015232143524</v>
       </c>
       <c r="R43" t="n">
-        <v>1433.388942351122</v>
+        <v>1433.388942351121</v>
       </c>
       <c r="S43" t="n">
-        <v>1334.203628686804</v>
+        <v>1334.203628686803</v>
       </c>
       <c r="T43" t="n">
-        <v>1214.633488428792</v>
+        <v>1214.633488428791</v>
       </c>
       <c r="U43" t="n">
-        <v>1030.836218885787</v>
+        <v>1030.836218885786</v>
       </c>
       <c r="V43" t="n">
-        <v>881.4975321770996</v>
+        <v>881.4975321770989</v>
       </c>
       <c r="W43" t="n">
-        <v>697.4261636373384</v>
+        <v>697.4261636373377</v>
       </c>
       <c r="X43" t="n">
-        <v>574.7824142365204</v>
+        <v>574.7824142365198</v>
       </c>
       <c r="Y43" t="n">
-        <v>459.3356365901896</v>
+        <v>459.335636590189</v>
       </c>
     </row>
     <row r="44">
@@ -7649,19 +7649,19 @@
         <v>285.4925656641196</v>
       </c>
       <c r="K44" t="n">
-        <v>735.3560456871488</v>
+        <v>735.3560456871489</v>
       </c>
       <c r="L44" t="n">
-        <v>941.7529801303886</v>
+        <v>1345.72809984796</v>
       </c>
       <c r="M44" t="n">
-        <v>1637.516041961358</v>
+        <v>1637.516041961357</v>
       </c>
       <c r="N44" t="n">
-        <v>1896.931824816961</v>
+        <v>1896.93182481696</v>
       </c>
       <c r="O44" t="n">
-        <v>2505.547710604637</v>
+        <v>2505.547710604636</v>
       </c>
       <c r="P44" t="n">
         <v>2987.312905390717</v>
@@ -7676,7 +7676,7 @@
         <v>3252.399424646712</v>
       </c>
       <c r="T44" t="n">
-        <v>3144.574434711785</v>
+        <v>3144.574434711786</v>
       </c>
       <c r="U44" t="n">
         <v>2996.258304655795</v>
@@ -7713,10 +7713,10 @@
         <v>487.7148803287298</v>
       </c>
       <c r="F45" t="n">
-        <v>341.1803223556148</v>
+        <v>341.1803223556147</v>
       </c>
       <c r="G45" t="n">
-        <v>203.9380405237519</v>
+        <v>203.9380405237518</v>
       </c>
       <c r="H45" t="n">
         <v>104.9451021914994</v>
@@ -7725,19 +7725,19 @@
         <v>65.89576755016409</v>
       </c>
       <c r="J45" t="n">
-        <v>78.16261144815562</v>
+        <v>202.9927364351604</v>
       </c>
       <c r="K45" t="n">
-        <v>439.1040108713499</v>
+        <v>563.9341358583548</v>
       </c>
       <c r="L45" t="n">
-        <v>831.3025938062962</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.247351947883</v>
+        <v>1450.171048031845</v>
       </c>
       <c r="N45" t="n">
-        <v>1309.660241506835</v>
+        <v>1699.583937590797</v>
       </c>
       <c r="O45" t="n">
         <v>1905.528209575438</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>383.0329732571493</v>
+        <v>383.0329732571492</v>
       </c>
       <c r="C46" t="n">
-        <v>319.4425918264417</v>
+        <v>319.4425918264416</v>
       </c>
       <c r="D46" t="n">
-        <v>274.6717539113053</v>
+        <v>274.6717539113052</v>
       </c>
       <c r="E46" t="n">
         <v>232.1044618261115</v>
       </c>
       <c r="F46" t="n">
-        <v>190.5603158254005</v>
+        <v>190.5603158254004</v>
       </c>
       <c r="G46" t="n">
         <v>127.466204323444</v>
       </c>
       <c r="H46" t="n">
-        <v>80.04154000532421</v>
+        <v>80.04154000532419</v>
       </c>
       <c r="I46" t="n">
         <v>65.89576755016409</v>
@@ -7807,16 +7807,16 @@
         <v>65.89576755016409</v>
       </c>
       <c r="K46" t="n">
-        <v>214.0083228080701</v>
+        <v>289.2016312686076</v>
       </c>
       <c r="L46" t="n">
-        <v>526.4150913705001</v>
+        <v>498.3589797836327</v>
       </c>
       <c r="M46" t="n">
-        <v>860.5807324972852</v>
+        <v>832.5246209104178</v>
       </c>
       <c r="N46" t="n">
-        <v>1091.440898384383</v>
+        <v>1091.440898384382</v>
       </c>
       <c r="O46" t="n">
         <v>1288.661331867251</v>
@@ -7828,7 +7828,7 @@
         <v>1451.015232143525</v>
       </c>
       <c r="R46" t="n">
-        <v>1433.388942351123</v>
+        <v>1433.388942351122</v>
       </c>
       <c r="S46" t="n">
         <v>1334.203628686804</v>
@@ -7837,19 +7837,19 @@
         <v>1214.633488428792</v>
       </c>
       <c r="U46" t="n">
-        <v>1030.836218885788</v>
+        <v>1030.836218885787</v>
       </c>
       <c r="V46" t="n">
-        <v>881.4975321770999</v>
+        <v>881.4975321770996</v>
       </c>
       <c r="W46" t="n">
-        <v>697.4261636373385</v>
+        <v>697.4261636373384</v>
       </c>
       <c r="X46" t="n">
-        <v>574.7824142365205</v>
+        <v>574.7824142365204</v>
       </c>
       <c r="Y46" t="n">
-        <v>459.3356365901897</v>
+        <v>459.3356365901896</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>120.885988312204</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>283.5874716269817</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.2337799195556</v>
       </c>
       <c r="R11" t="n">
-        <v>42.57335502542716</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,22 +8772,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>267.0033956675395</v>
       </c>
       <c r="M12" t="n">
-        <v>217.1629418842805</v>
+        <v>26.86631297029061</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>240.3957561842257</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>300.9906082978675</v>
       </c>
       <c r="Q12" t="n">
-        <v>137.3016188671918</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>160.7252713562843</v>
       </c>
       <c r="M14" t="n">
-        <v>398.8885232487885</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>70.52891240806142</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>42.57335502542716</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>318.4454865548521</v>
+        <v>111.6742457427453</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>396.1833268637436</v>
       </c>
       <c r="M17" t="n">
-        <v>398.8885232487885</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>390.1298170038005</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>100.4070143543933</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>42.57335502542716</v>
+        <v>42.57335502542713</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>420.9086298462415</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>400.2337496266803</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>111.6742457427453</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>209.6281949985967</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>209.8907318659718</v>
       </c>
       <c r="M20" t="n">
-        <v>398.8885232487885</v>
+        <v>398.8885232487886</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>390.1298170038006</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>50.12375243495322</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>42.57335502542716</v>
+        <v>42.57335502542713</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>185.9830208644925</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>111.6742457427458</v>
       </c>
       <c r="N21" t="n">
-        <v>400.2337496266802</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>225.5777098071529</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>398.8885232487887</v>
+        <v>398.8885232487886</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>47.38584756050673</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542713</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>420.9086298462418</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>219.3056722722904</v>
+        <v>111.6742457427457</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>145.3025178741406</v>
+        <v>300.3513152732315</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,22 +9951,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>36.2746951059537</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>341.3509123921173</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>76.58916564405345</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>266.1522919311676</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,10 +10124,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>129.2632520430606</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>111.674245742746</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10349,19 +10349,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>381.7005081716691</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>231.6379630431441</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10431,16 +10431,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>16.8095272962054</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>111.674245742746</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>141.8411199524236</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>9.605538068055125</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>335.2722959361429</v>
+        <v>111.674245742746</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>190.868762320976</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>64.60092185799203</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542713</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>151.4872643952625</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>111.674245742746</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>122.1554100908888</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>41.45785701043576</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>111.674245742746</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>171.2031914447906</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,10 +11300,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>9.605538068054727</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>41.4578570104359</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11373,22 +11373,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>214.7433071098851</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>111.674245742746</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>234.4768497139644</v>
+        <v>305.3102796803863</v>
       </c>
       <c r="C11" t="n">
-        <v>287.8493297879132</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>277.2594796375887</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5068080891675</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>329.4524837586172</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>68.8338448320112</v>
       </c>
       <c r="T11" t="n">
-        <v>133.6155215347106</v>
+        <v>133.6155215347108</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>173.7017502545638</v>
       </c>
       <c r="V11" t="n">
         <v>250.3286964870406</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>271.8174067343188</v>
       </c>
       <c r="X11" t="n">
         <v>292.3075386953748</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>59.36271021079363</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>60.93937715402133</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.31880839361166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>16.62056876041117</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>199.0941262084738</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>287.8493297879132</v>
       </c>
       <c r="D14" t="n">
-        <v>277.2594796375887</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5068080891675</v>
+        <v>304.5068080891674</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>184.046067150687</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>292.3075386953747</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.93937715402149</v>
+        <v>60.9393771540193</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>20481.90846792596</v>
       </c>
       <c r="C2" t="n">
-        <v>20481.90846792596</v>
+        <v>20481.90846792595</v>
       </c>
       <c r="D2" t="n">
         <v>20481.90846792596</v>
@@ -26323,16 +26323,16 @@
         <v>16789.26266127848</v>
       </c>
       <c r="F2" t="n">
-        <v>18362.74823030562</v>
+        <v>18362.74823030563</v>
       </c>
       <c r="G2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="H2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="J2" t="n">
         <v>20526.0442466071</v>
@@ -26341,19 +26341,19 @@
         <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660712</v>
       </c>
       <c r="M2" t="n">
         <v>20526.04424660712</v>
       </c>
       <c r="N2" t="n">
+        <v>20526.04424660713</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.04424660712</v>
       </c>
-      <c r="O2" t="n">
-        <v>20526.04424660713</v>
-      </c>
       <c r="P2" t="n">
-        <v>20526.04424660713</v>
+        <v>20526.04424660711</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>746256.1644166387</v>
       </c>
       <c r="F3" t="n">
-        <v>58378.43698898883</v>
+        <v>58378.43698898892</v>
       </c>
       <c r="G3" t="n">
-        <v>59877.36107027686</v>
+        <v>59877.36107027681</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>73573.91951487752</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.008273078527833e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>59877.36107027686</v>
+        <v>59877.36107027679</v>
       </c>
       <c r="M3" t="n">
         <v>107779.8354573343</v>
@@ -26402,7 +26402,7 @@
         <v>49902.82011545922</v>
       </c>
       <c r="O3" t="n">
-        <v>4106.365438248872</v>
+        <v>4106.365438248918</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>132767.5489705625</v>
+        <v>132767.5489705624</v>
       </c>
       <c r="F4" t="n">
-        <v>153149.3497879657</v>
+        <v>153149.3497879658</v>
       </c>
       <c r="G4" t="n">
         <v>202349.5883717045</v>
@@ -26439,7 +26439,7 @@
         <v>202349.5883717046</v>
       </c>
       <c r="J4" t="n">
-        <v>189330.9659432835</v>
+        <v>189330.9659432834</v>
       </c>
       <c r="K4" t="n">
         <v>189330.9659432835</v>
@@ -26479,37 +26479,37 @@
         <v>48708.52866658146</v>
       </c>
       <c r="F5" t="n">
-        <v>61096.26649466869</v>
+        <v>61096.26649466871</v>
       </c>
       <c r="G5" t="n">
-        <v>67388.55382944008</v>
+        <v>67388.55382944009</v>
       </c>
       <c r="H5" t="n">
-        <v>67388.55382944008</v>
+        <v>67388.55382944009</v>
       </c>
       <c r="I5" t="n">
         <v>67388.55382944009</v>
       </c>
       <c r="J5" t="n">
-        <v>77453.80406787343</v>
+        <v>77453.80406787344</v>
       </c>
       <c r="K5" t="n">
-        <v>77453.80406787343</v>
+        <v>77453.80406787344</v>
       </c>
       <c r="L5" t="n">
-        <v>77453.80406787343</v>
+        <v>77453.80406787344</v>
       </c>
       <c r="M5" t="n">
-        <v>73784.19097745874</v>
+        <v>73784.19097745875</v>
       </c>
       <c r="N5" t="n">
-        <v>73784.19097745874</v>
+        <v>73784.19097745875</v>
       </c>
       <c r="O5" t="n">
         <v>73784.19097745874</v>
       </c>
       <c r="P5" t="n">
-        <v>73784.19097745873</v>
+        <v>73784.19097745874</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-444044.2009747499</v>
+        <v>-444048.614552618</v>
       </c>
       <c r="C6" t="n">
-        <v>-444044.2009747499</v>
+        <v>-444048.614552618</v>
       </c>
       <c r="D6" t="n">
-        <v>-444044.2009747499</v>
+        <v>-444048.614552618</v>
       </c>
       <c r="E6" t="n">
-        <v>-910942.9793925041</v>
+        <v>-911316.6575510369</v>
       </c>
       <c r="F6" t="n">
-        <v>-254261.3050413176</v>
+        <v>-254477.6346429479</v>
       </c>
       <c r="G6" t="n">
-        <v>-309089.4590248144</v>
+        <v>-309089.4590248143</v>
       </c>
       <c r="H6" t="n">
         <v>-249212.0979545375</v>
@@ -26546,7 +26546,7 @@
         <v>-319832.6452794273</v>
       </c>
       <c r="K6" t="n">
-        <v>-246258.7257645498</v>
+        <v>-246258.7257645499</v>
       </c>
       <c r="L6" t="n">
         <v>-306136.0868348266</v>
@@ -26555,10 +26555,10 @@
         <v>-354923.52815058</v>
       </c>
       <c r="N6" t="n">
-        <v>-297046.5128087049</v>
+        <v>-297046.512808705</v>
       </c>
       <c r="O6" t="n">
-        <v>-251250.0581314946</v>
+        <v>-251250.0581314947</v>
       </c>
       <c r="P6" t="n">
         <v>-247143.6926932457</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="F2" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="G2" t="n">
         <v>152.2702633209404</v>
@@ -26707,13 +26707,13 @@
         <v>152.2702633209404</v>
       </c>
       <c r="J2" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="K2" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="L2" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="M2" t="n">
         <v>104.2923434822273</v>
@@ -26722,7 +26722,7 @@
         <v>104.2923434822273</v>
       </c>
       <c r="O2" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="P2" t="n">
         <v>104.2923434822273</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360852</v>
       </c>
       <c r="F3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360852</v>
       </c>
       <c r="G3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360852</v>
       </c>
       <c r="H3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360852</v>
       </c>
       <c r="I3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360852</v>
       </c>
       <c r="J3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360852</v>
       </c>
       <c r="K3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360852</v>
       </c>
       <c r="L3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360852</v>
       </c>
       <c r="M3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360852</v>
       </c>
       <c r="N3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360852</v>
       </c>
       <c r="O3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360852</v>
       </c>
       <c r="P3" t="n">
-        <v>685.121771336085</v>
+        <v>685.1217713360852</v>
       </c>
     </row>
     <row r="4">
@@ -26799,31 +26799,31 @@
         <v>448.4202733404285</v>
       </c>
       <c r="F4" t="n">
-        <v>652.1659613023895</v>
+        <v>652.1659613023896</v>
       </c>
       <c r="G4" t="n">
-        <v>652.1659613023895</v>
+        <v>652.1659613023896</v>
       </c>
       <c r="H4" t="n">
-        <v>652.1659613023895</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="I4" t="n">
         <v>652.1659613023897</v>
       </c>
       <c r="J4" t="n">
-        <v>917.6700587654641</v>
+        <v>917.6700587654643</v>
       </c>
       <c r="K4" t="n">
-        <v>917.6700587654641</v>
+        <v>917.6700587654643</v>
       </c>
       <c r="L4" t="n">
-        <v>917.6700587654641</v>
+        <v>917.6700587654643</v>
       </c>
       <c r="M4" t="n">
-        <v>823.6970943770514</v>
+        <v>823.6970943770516</v>
       </c>
       <c r="N4" t="n">
-        <v>823.6970943770513</v>
+        <v>823.6970943770515</v>
       </c>
       <c r="O4" t="n">
         <v>823.6970943770513</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>74.84670133784607</v>
+        <v>74.84670133784601</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.132956797811104</v>
+        <v>5.132956797811033</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.010341348159791e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>74.84670133784607</v>
+        <v>74.84670133784599</v>
       </c>
       <c r="M2" t="n">
-        <v>24.31268534657012</v>
+        <v>24.31268534657018</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.13295679781109</v>
+        <v>5.132956797811147</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360852</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>448.4202733404285</v>
       </c>
       <c r="F4" t="n">
-        <v>203.745687961961</v>
+        <v>203.7456879619611</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>265.5040974630743</v>
+        <v>265.5040974630746</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>354.4473089520158</v>
       </c>
       <c r="N4" t="n">
-        <v>203.7456879619609</v>
+        <v>203.745687961961</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>74.84670133784607</v>
+        <v>74.84670133784601</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.132956797811104</v>
+        <v>5.132956797811033</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.010341348159791e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27267,7 +27267,7 @@
         <v>448.4202733404285</v>
       </c>
       <c r="N4" t="n">
-        <v>203.745687961961</v>
+        <v>203.7456879619611</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="C11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="D11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="E11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="F11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="G11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="H11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="I11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="T11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="U11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="V11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="W11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="X11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="Y11" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="C12" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="D12" t="n">
-        <v>77.42356198309429</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>77.42356198309429</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>77.42356198309429</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="I12" t="n">
-        <v>38.65884129492198</v>
+        <v>16.46064601183609</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.661760614590065</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="T12" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="U12" t="n">
-        <v>46.56360608541851</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="W12" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="C13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="D13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="E13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="F13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="G13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="H13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="I13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="J13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="K13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="L13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="M13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="N13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="O13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="P13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="R13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="S13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="T13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="U13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="V13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="W13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="X13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309427</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="C14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="D14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="E14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="F14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="G14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="H14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="I14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="T14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="U14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="V14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="W14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="X14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="Y14" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
     </row>
     <row r="15">
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="C16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="D16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="E16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="F16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="G16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="H16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="I16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="J16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="K16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="L16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="M16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="N16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="O16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="P16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="R16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="S16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="T16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="U16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="V16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="W16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="X16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.42356198309429</v>
+        <v>77.42356198309434</v>
       </c>
     </row>
     <row r="17">
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="C19" t="n">
-        <v>3.242781199494573</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28743,7 +28743,7 @@
         <v>118.2966582128358</v>
       </c>
       <c r="J19" t="n">
-        <v>6.011770023546006</v>
+        <v>6.011770023545992</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,13 +28770,13 @@
         <v>121.7423703767059</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="T19" t="n">
         <v>152.2702633209404</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2702633209404</v>
+        <v>3.242781199494686</v>
       </c>
       <c r="V19" t="n">
         <v>152.2702633209404</v>
@@ -28788,7 +28788,7 @@
         <v>152.2702633209404</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28959,19 +28959,19 @@
         <v>152.2702633209404</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>142.8275285480545</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>151.2427611571659</v>
@@ -28980,7 +28980,7 @@
         <v>118.2966582128358</v>
       </c>
       <c r="J22" t="n">
-        <v>6.011770023546006</v>
+        <v>6.011770023545992</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,19 +29007,19 @@
         <v>121.7423703767059</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>152.2702633209404</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="V22" t="n">
         <v>152.2702633209404</v>
       </c>
       <c r="W22" t="n">
-        <v>149.6767438460638</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="X22" t="n">
         <v>152.2702633209404</v>
@@ -29202,22 +29202,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>124.1331187616008</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>152.2702633209404</v>
       </c>
       <c r="H25" t="n">
-        <v>151.2427611571659</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>78.32603049571587</v>
+        <v>118.2966582128358</v>
       </c>
       <c r="J25" t="n">
-        <v>6.011770023546006</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>152.2702633209404</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="C26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="D26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="E26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="F26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="G26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="H26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="I26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="T26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="U26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="V26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="W26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="X26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="C28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="D28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="E28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="F28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="G28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="H28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="I28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="J28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="K28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="L28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="M28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="N28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="O28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="P28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="R28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="S28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="T28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="U28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="V28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="W28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="X28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="C29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="D29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="E29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="F29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="G29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="H29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="I29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="T29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="U29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="V29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="W29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="X29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="C31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="D31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="E31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="F31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="G31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="H31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="I31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="J31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="K31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="L31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="M31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="N31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="O31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="P31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="R31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="S31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="T31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="U31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="V31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="W31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="X31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565713</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="C32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="D32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="E32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="F32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="G32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="H32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="I32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="T32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="U32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="V32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="W32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="X32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="C34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="D34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="E34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="F34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="G34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="H34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="I34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="J34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="K34" t="n">
-        <v>79.97965813565693</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="L34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="M34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="N34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="O34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="P34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565779</v>
       </c>
       <c r="R34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="S34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="T34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="U34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="V34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="W34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="X34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.9796581356571</v>
       </c>
     </row>
     <row r="35">
@@ -30165,28 +30165,28 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J37" t="n">
-        <v>6.011770023546006</v>
+        <v>6.011770023545992</v>
       </c>
       <c r="K37" t="n">
-        <v>28.33950665340177</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="O37" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>28.33950665340176</v>
       </c>
       <c r="R37" t="n">
         <v>104.2923434822273</v>
@@ -30402,10 +30402,10 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J40" t="n">
-        <v>6.011770023546006</v>
+        <v>6.011770023545992</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>28.33950665340177</v>
       </c>
       <c r="L40" t="n">
         <v>104.2923434822273</v>
@@ -30414,13 +30414,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>28.339506653401</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="P40" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="C41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="D41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="E41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="F41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="G41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="H41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="I41" t="n">
         <v>104.2923434822273</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="T41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="U41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="V41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="W41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="X41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="Y41" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
     </row>
     <row r="42">
@@ -30615,40 +30615,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="C43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="D43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="E43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="F43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="G43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="H43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="I43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="J43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>34.35127667694573</v>
       </c>
       <c r="L43" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>34.35127667694734</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="S43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="T43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="U43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="V43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="W43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="X43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
       <c r="Y43" t="n">
-        <v>104.2923434822273</v>
+        <v>104.2923434822274</v>
       </c>
     </row>
     <row r="44">
@@ -30876,19 +30876,19 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J46" t="n">
-        <v>6.011770023546021</v>
+        <v>6.011770023545992</v>
       </c>
       <c r="K46" t="n">
-        <v>28.3395066534016</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="L46" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>104.2923434822273</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>28.33950665340097</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -31762,22 +31762,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K11" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L11" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M11" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N11" t="n">
-        <v>491.4492078951799</v>
+        <v>491.44920789518</v>
       </c>
       <c r="O11" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565943</v>
       </c>
       <c r="P11" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q11" t="n">
         <v>297.4289193341494</v>
@@ -31786,13 +31786,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S11" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113988</v>
       </c>
       <c r="T11" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H12" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I12" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649311</v>
       </c>
       <c r="J12" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K12" t="n">
         <v>237.9634741064212</v>
@@ -31847,7 +31847,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M12" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N12" t="n">
         <v>383.2739237590426</v>
@@ -31856,22 +31856,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P12" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q12" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R12" t="n">
-        <v>91.49607353805307</v>
+        <v>91.49607353805308</v>
       </c>
       <c r="S12" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T12" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225114</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699323</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H13" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I13" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442246</v>
       </c>
       <c r="J13" t="n">
-        <v>87.34741009312677</v>
+        <v>87.34741009312678</v>
       </c>
       <c r="K13" t="n">
         <v>143.5386268471339</v>
@@ -31938,16 +31938,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R13" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S13" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T13" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622294</v>
       </c>
       <c r="U13" t="n">
         <v>0.06738902668879533</v>
@@ -31999,22 +31999,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K14" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L14" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M14" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N14" t="n">
-        <v>491.4492078951799</v>
+        <v>491.44920789518</v>
       </c>
       <c r="O14" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565943</v>
       </c>
       <c r="P14" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q14" t="n">
         <v>297.4289193341494</v>
@@ -32023,13 +32023,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S14" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113988</v>
       </c>
       <c r="T14" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H15" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I15" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649311</v>
       </c>
       <c r="J15" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K15" t="n">
         <v>237.9634741064212</v>
@@ -32084,7 +32084,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M15" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N15" t="n">
         <v>383.2739237590426</v>
@@ -32093,22 +32093,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P15" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q15" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R15" t="n">
-        <v>91.49607353805307</v>
+        <v>91.49607353805308</v>
       </c>
       <c r="S15" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T15" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225114</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699323</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H16" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I16" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442246</v>
       </c>
       <c r="J16" t="n">
-        <v>87.34741009312677</v>
+        <v>87.34741009312678</v>
       </c>
       <c r="K16" t="n">
         <v>143.5386268471339</v>
@@ -32175,16 +32175,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R16" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S16" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T16" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622294</v>
       </c>
       <c r="U16" t="n">
         <v>0.06738902668879533</v>
@@ -32236,22 +32236,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K17" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L17" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M17" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N17" t="n">
-        <v>491.4492078951799</v>
+        <v>491.44920789518</v>
       </c>
       <c r="O17" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565943</v>
       </c>
       <c r="P17" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q17" t="n">
         <v>297.4289193341494</v>
@@ -32260,13 +32260,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S17" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113988</v>
       </c>
       <c r="T17" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H18" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I18" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649311</v>
       </c>
       <c r="J18" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K18" t="n">
         <v>237.9634741064212</v>
@@ -32321,7 +32321,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M18" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N18" t="n">
         <v>383.2739237590426</v>
@@ -32330,22 +32330,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P18" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q18" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R18" t="n">
-        <v>91.49607353805307</v>
+        <v>91.49607353805308</v>
       </c>
       <c r="S18" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T18" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225114</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699323</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H19" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I19" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442246</v>
       </c>
       <c r="J19" t="n">
-        <v>87.34741009312677</v>
+        <v>87.34741009312678</v>
       </c>
       <c r="K19" t="n">
         <v>143.5386268471339</v>
@@ -32412,16 +32412,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R19" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S19" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T19" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622294</v>
       </c>
       <c r="U19" t="n">
         <v>0.06738902668879533</v>
@@ -32473,22 +32473,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K20" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L20" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M20" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N20" t="n">
-        <v>491.4492078951799</v>
+        <v>491.44920789518</v>
       </c>
       <c r="O20" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565943</v>
       </c>
       <c r="P20" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q20" t="n">
         <v>297.4289193341494</v>
@@ -32497,13 +32497,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S20" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113988</v>
       </c>
       <c r="T20" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H21" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I21" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649311</v>
       </c>
       <c r="J21" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K21" t="n">
         <v>237.9634741064212</v>
@@ -32558,7 +32558,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M21" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N21" t="n">
         <v>383.2739237590426</v>
@@ -32567,22 +32567,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P21" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q21" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R21" t="n">
-        <v>91.49607353805307</v>
+        <v>91.49607353805308</v>
       </c>
       <c r="S21" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T21" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225114</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699323</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H22" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I22" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442246</v>
       </c>
       <c r="J22" t="n">
-        <v>87.34741009312677</v>
+        <v>87.34741009312678</v>
       </c>
       <c r="K22" t="n">
         <v>143.5386268471339</v>
@@ -32649,16 +32649,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R22" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S22" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T22" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622294</v>
       </c>
       <c r="U22" t="n">
         <v>0.06738902668879533</v>
@@ -32710,22 +32710,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K23" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L23" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M23" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N23" t="n">
-        <v>491.4492078951799</v>
+        <v>491.44920789518</v>
       </c>
       <c r="O23" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565943</v>
       </c>
       <c r="P23" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q23" t="n">
         <v>297.4289193341494</v>
@@ -32734,13 +32734,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S23" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113988</v>
       </c>
       <c r="T23" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H24" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I24" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649311</v>
       </c>
       <c r="J24" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K24" t="n">
         <v>237.9634741064212</v>
@@ -32795,7 +32795,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M24" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N24" t="n">
         <v>383.2739237590426</v>
@@ -32804,22 +32804,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P24" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q24" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R24" t="n">
-        <v>91.49607353805307</v>
+        <v>91.49607353805308</v>
       </c>
       <c r="S24" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T24" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225114</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699323</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,13 +32859,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H25" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I25" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442246</v>
       </c>
       <c r="J25" t="n">
-        <v>87.34741009312677</v>
+        <v>87.34741009312678</v>
       </c>
       <c r="K25" t="n">
         <v>143.5386268471339</v>
@@ -32886,16 +32886,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q25" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R25" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S25" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T25" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622294</v>
       </c>
       <c r="U25" t="n">
         <v>0.06738902668879533</v>
@@ -32947,22 +32947,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K26" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L26" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M26" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N26" t="n">
-        <v>491.4492078951799</v>
+        <v>491.44920789518</v>
       </c>
       <c r="O26" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565943</v>
       </c>
       <c r="P26" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q26" t="n">
         <v>297.4289193341494</v>
@@ -32971,13 +32971,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S26" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113988</v>
       </c>
       <c r="T26" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H27" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I27" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649311</v>
       </c>
       <c r="J27" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K27" t="n">
         <v>237.9634741064212</v>
@@ -33032,7 +33032,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M27" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N27" t="n">
         <v>383.2739237590426</v>
@@ -33041,22 +33041,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P27" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q27" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R27" t="n">
-        <v>91.49607353805307</v>
+        <v>91.49607353805308</v>
       </c>
       <c r="S27" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T27" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225114</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699323</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,13 +33096,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H28" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I28" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442246</v>
       </c>
       <c r="J28" t="n">
-        <v>87.34741009312677</v>
+        <v>87.34741009312678</v>
       </c>
       <c r="K28" t="n">
         <v>143.5386268471339</v>
@@ -33123,16 +33123,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R28" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S28" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T28" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622294</v>
       </c>
       <c r="U28" t="n">
         <v>0.06738902668879533</v>
@@ -33184,22 +33184,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K29" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L29" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M29" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N29" t="n">
-        <v>491.4492078951799</v>
+        <v>491.44920789518</v>
       </c>
       <c r="O29" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565943</v>
       </c>
       <c r="P29" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q29" t="n">
         <v>297.4289193341494</v>
@@ -33208,13 +33208,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S29" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113988</v>
       </c>
       <c r="T29" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H30" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I30" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649311</v>
       </c>
       <c r="J30" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K30" t="n">
         <v>237.9634741064212</v>
@@ -33269,7 +33269,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M30" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N30" t="n">
         <v>383.2739237590426</v>
@@ -33278,22 +33278,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P30" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q30" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R30" t="n">
-        <v>91.49607353805307</v>
+        <v>91.49607353805308</v>
       </c>
       <c r="S30" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T30" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225114</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699323</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,13 +33333,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H31" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I31" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442246</v>
       </c>
       <c r="J31" t="n">
-        <v>87.34741009312677</v>
+        <v>87.34741009312678</v>
       </c>
       <c r="K31" t="n">
         <v>143.5386268471339</v>
@@ -33360,16 +33360,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R31" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S31" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T31" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622294</v>
       </c>
       <c r="U31" t="n">
         <v>0.06738902668879533</v>
@@ -33421,22 +33421,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K32" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L32" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M32" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N32" t="n">
-        <v>491.4492078951799</v>
+        <v>491.44920789518</v>
       </c>
       <c r="O32" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565943</v>
       </c>
       <c r="P32" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q32" t="n">
         <v>297.4289193341494</v>
@@ -33445,13 +33445,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S32" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113988</v>
       </c>
       <c r="T32" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H33" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I33" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649311</v>
       </c>
       <c r="J33" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K33" t="n">
         <v>237.9634741064212</v>
@@ -33506,7 +33506,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M33" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N33" t="n">
         <v>383.2739237590426</v>
@@ -33515,22 +33515,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P33" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q33" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R33" t="n">
-        <v>91.49607353805307</v>
+        <v>91.49607353805308</v>
       </c>
       <c r="S33" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T33" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225114</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699323</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,13 +33570,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H34" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I34" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442246</v>
       </c>
       <c r="J34" t="n">
-        <v>87.34741009312677</v>
+        <v>87.34741009312678</v>
       </c>
       <c r="K34" t="n">
         <v>143.5386268471339</v>
@@ -33597,16 +33597,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R34" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S34" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T34" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622294</v>
       </c>
       <c r="U34" t="n">
         <v>0.06738902668879533</v>
@@ -33658,22 +33658,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K35" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L35" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M35" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N35" t="n">
-        <v>491.4492078951799</v>
+        <v>491.44920789518</v>
       </c>
       <c r="O35" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565943</v>
       </c>
       <c r="P35" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q35" t="n">
         <v>297.4289193341494</v>
@@ -33682,13 +33682,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S35" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113988</v>
       </c>
       <c r="T35" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H36" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I36" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649311</v>
       </c>
       <c r="J36" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K36" t="n">
         <v>237.9634741064212</v>
@@ -33743,7 +33743,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M36" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N36" t="n">
         <v>383.2739237590426</v>
@@ -33752,22 +33752,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P36" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q36" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R36" t="n">
-        <v>91.49607353805307</v>
+        <v>91.49607353805308</v>
       </c>
       <c r="S36" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T36" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225114</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699323</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,13 +33807,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H37" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I37" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442246</v>
       </c>
       <c r="J37" t="n">
-        <v>87.34741009312677</v>
+        <v>87.34741009312678</v>
       </c>
       <c r="K37" t="n">
         <v>143.5386268471339</v>
@@ -33834,16 +33834,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R37" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S37" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T37" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622294</v>
       </c>
       <c r="U37" t="n">
         <v>0.06738902668879533</v>
@@ -33895,22 +33895,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K38" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L38" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M38" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N38" t="n">
-        <v>491.4492078951799</v>
+        <v>491.44920789518</v>
       </c>
       <c r="O38" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565943</v>
       </c>
       <c r="P38" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q38" t="n">
         <v>297.4289193341494</v>
@@ -33919,13 +33919,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S38" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113988</v>
       </c>
       <c r="T38" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H39" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I39" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649311</v>
       </c>
       <c r="J39" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K39" t="n">
         <v>237.9634741064212</v>
@@ -33980,7 +33980,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M39" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N39" t="n">
         <v>383.2739237590426</v>
@@ -33989,22 +33989,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P39" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q39" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R39" t="n">
-        <v>91.49607353805307</v>
+        <v>91.49607353805308</v>
       </c>
       <c r="S39" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T39" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225114</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699323</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,13 +34044,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H40" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I40" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442246</v>
       </c>
       <c r="J40" t="n">
-        <v>87.34741009312677</v>
+        <v>87.34741009312678</v>
       </c>
       <c r="K40" t="n">
         <v>143.5386268471339</v>
@@ -34071,16 +34071,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R40" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S40" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T40" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622294</v>
       </c>
       <c r="U40" t="n">
         <v>0.06738902668879533</v>
@@ -34132,22 +34132,22 @@
         <v>233.7642369444666</v>
       </c>
       <c r="K41" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L41" t="n">
         <v>434.6426288648011</v>
       </c>
       <c r="M41" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N41" t="n">
-        <v>491.4492078951799</v>
+        <v>491.44920789518</v>
       </c>
       <c r="O41" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565943</v>
       </c>
       <c r="P41" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q41" t="n">
         <v>297.4289193341494</v>
@@ -34156,13 +34156,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S41" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113988</v>
       </c>
       <c r="T41" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H42" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I42" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649311</v>
       </c>
       <c r="J42" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K42" t="n">
         <v>237.9634741064212</v>
@@ -34217,7 +34217,7 @@
         <v>319.9712574527632</v>
       </c>
       <c r="M42" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N42" t="n">
         <v>383.2739237590426</v>
@@ -34226,22 +34226,22 @@
         <v>350.6207616006473</v>
       </c>
       <c r="P42" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q42" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R42" t="n">
-        <v>91.49607353805307</v>
+        <v>91.49607353805308</v>
       </c>
       <c r="S42" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T42" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225114</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699323</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,13 +34281,13 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H43" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I43" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442246</v>
       </c>
       <c r="J43" t="n">
-        <v>87.34741009312677</v>
+        <v>87.34741009312678</v>
       </c>
       <c r="K43" t="n">
         <v>143.5386268471339</v>
@@ -34308,16 +34308,16 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R43" t="n">
         <v>55.55102100046354</v>
       </c>
       <c r="S43" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T43" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622294</v>
       </c>
       <c r="U43" t="n">
         <v>0.06738902668879533</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.75425837723049</v>
+        <v>2.754258377230491</v>
       </c>
       <c r="H44" t="n">
         <v>28.20704860581177</v>
@@ -34366,40 +34366,40 @@
         <v>106.1835460881786</v>
       </c>
       <c r="J44" t="n">
-        <v>233.7642369444665</v>
+        <v>233.7642369444666</v>
       </c>
       <c r="K44" t="n">
-        <v>350.3519940526332</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L44" t="n">
-        <v>434.6426288648009</v>
+        <v>434.6426288648011</v>
       </c>
       <c r="M44" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N44" t="n">
-        <v>491.4492078951798</v>
+        <v>491.44920789518</v>
       </c>
       <c r="O44" t="n">
-        <v>464.0615511565941</v>
+        <v>464.0615511565943</v>
       </c>
       <c r="P44" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q44" t="n">
-        <v>297.4289193341493</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R44" t="n">
-        <v>173.0121827887049</v>
+        <v>173.012182788705</v>
       </c>
       <c r="S44" t="n">
-        <v>62.76266277113986</v>
+        <v>62.76266277113988</v>
       </c>
       <c r="T44" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H45" t="n">
         <v>14.2324352875666</v>
       </c>
       <c r="I45" t="n">
-        <v>50.73779155649309</v>
+        <v>50.73779155649311</v>
       </c>
       <c r="J45" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K45" t="n">
         <v>237.9634741064212</v>
       </c>
       <c r="L45" t="n">
-        <v>319.9712574527631</v>
+        <v>319.9712574527632</v>
       </c>
       <c r="M45" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N45" t="n">
-        <v>383.2739237590425</v>
+        <v>383.2739237590426</v>
       </c>
       <c r="O45" t="n">
-        <v>350.6207616006472</v>
+        <v>350.6207616006473</v>
       </c>
       <c r="P45" t="n">
-        <v>281.4040724568912</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q45" t="n">
         <v>188.1111701223153</v>
       </c>
       <c r="R45" t="n">
-        <v>91.49607353805304</v>
+        <v>91.49607353805308</v>
       </c>
       <c r="S45" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T45" t="n">
-        <v>5.939876489225112</v>
+        <v>5.939876489225114</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09695119405699319</v>
+        <v>0.09695119405699323</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,25 +34515,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.235465489294579</v>
+        <v>1.23546548929458</v>
       </c>
       <c r="H46" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I46" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442246</v>
       </c>
       <c r="J46" t="n">
-        <v>87.34741009312675</v>
+        <v>87.34741009312678</v>
       </c>
       <c r="K46" t="n">
-        <v>143.5386268471338</v>
+        <v>143.5386268471339</v>
       </c>
       <c r="L46" t="n">
         <v>183.6800237447596</v>
       </c>
       <c r="M46" t="n">
-        <v>193.6648311991493</v>
+        <v>193.6648311991494</v>
       </c>
       <c r="N46" t="n">
         <v>189.0599143754152</v>
@@ -34545,19 +34545,19 @@
         <v>149.4239351779553</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R46" t="n">
-        <v>55.55102100046353</v>
+        <v>55.55102100046354</v>
       </c>
       <c r="S46" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T46" t="n">
-        <v>5.278807090622292</v>
+        <v>5.278807090622294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06738902668879532</v>
+        <v>0.06738902668879533</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.71833241778029</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K11" t="n">
         <v>130.2621430076528</v>
       </c>
       <c r="L11" t="n">
-        <v>198.8762138948138</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M11" t="n">
-        <v>374.163426365805</v>
+        <v>253.2774380536011</v>
       </c>
       <c r="N11" t="n">
-        <v>262.036144298589</v>
+        <v>262.0361442985891</v>
       </c>
       <c r="O11" t="n">
-        <v>233.9633397349075</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P11" t="n">
-        <v>448.4202733404285</v>
+        <v>164.8328017134469</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.1232294596999</v>
+        <v>287.3570093792555</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>23.14306484755531</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>12.39075141211265</v>
+        <v>12.39075141211268</v>
       </c>
       <c r="K12" t="n">
-        <v>100.1220351320622</v>
+        <v>100.1220351320623</v>
       </c>
       <c r="L12" t="n">
-        <v>181.416877672889</v>
+        <v>448.4202733404285</v>
       </c>
       <c r="M12" t="n">
-        <v>448.4202733404285</v>
+        <v>258.1236444264387</v>
       </c>
       <c r="N12" t="n">
         <v>251.9322116757093</v>
       </c>
       <c r="O12" t="n">
+        <v>208.0245171562029</v>
+      </c>
+      <c r="P12" t="n">
         <v>448.4202733404285</v>
       </c>
-      <c r="P12" t="n">
-        <v>147.4296650425611</v>
-      </c>
       <c r="Q12" t="n">
-        <v>185.4310149034856</v>
+        <v>48.12939603629383</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,10 +35571,10 @@
         <v>198.6926970043453</v>
       </c>
       <c r="L13" t="n">
-        <v>288.69361098817</v>
+        <v>288.6936109881701</v>
       </c>
       <c r="M13" t="n">
-        <v>310.6722701440842</v>
+        <v>310.6722701440843</v>
       </c>
       <c r="N13" t="n">
         <v>310.6156487377381</v>
@@ -35586,7 +35586,7 @@
         <v>224.126056425943</v>
       </c>
       <c r="Q13" t="n">
-        <v>94.71490620314874</v>
+        <v>94.71490620314876</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>52.71833241778029</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K14" t="n">
-        <v>454.4075555788175</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L14" t="n">
-        <v>616.5374284452643</v>
+        <v>359.6014852510982</v>
       </c>
       <c r="M14" t="n">
-        <v>652.1659613023895</v>
+        <v>253.2774380536011</v>
       </c>
       <c r="N14" t="n">
-        <v>262.036144298589</v>
+        <v>262.0361442985891</v>
       </c>
       <c r="O14" t="n">
-        <v>304.4922521429689</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P14" t="n">
-        <v>164.8328017134469</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q14" t="n">
-        <v>75.1232294596999</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>23.14306484755531</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>12.39075141211265</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K15" t="n">
-        <v>100.1220351320622</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L15" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M15" t="n">
-        <v>549.7028180110001</v>
+        <v>342.9315771988933</v>
       </c>
       <c r="N15" t="n">
         <v>251.9322116757093</v>
       </c>
       <c r="O15" t="n">
-        <v>601.8868364329323</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P15" t="n">
-        <v>465.8924336824982</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q15" t="n">
-        <v>48.1293960362938</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.41179195954828</v>
+        <v>71.41179195954835</v>
       </c>
       <c r="K16" t="n">
         <v>198.6926970043453</v>
       </c>
       <c r="L16" t="n">
-        <v>288.69361098817</v>
+        <v>288.6936109881701</v>
       </c>
       <c r="M16" t="n">
-        <v>310.6722701440842</v>
+        <v>310.6722701440843</v>
       </c>
       <c r="N16" t="n">
-        <v>310.6156487377381</v>
+        <v>310.6156487377382</v>
       </c>
       <c r="O16" t="n">
-        <v>276.6361210566988</v>
+        <v>276.6361210566989</v>
       </c>
       <c r="P16" t="n">
-        <v>224.126056425943</v>
+        <v>224.1260564259431</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.71490620314874</v>
+        <v>94.71490620314883</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>52.71833241778029</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K17" t="n">
-        <v>130.2621430076528</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L17" t="n">
-        <v>198.8762138948138</v>
+        <v>595.0595407585574</v>
       </c>
       <c r="M17" t="n">
-        <v>652.1659613023895</v>
+        <v>253.2774380536011</v>
       </c>
       <c r="N17" t="n">
-        <v>652.1659613023895</v>
+        <v>262.0361442985891</v>
       </c>
       <c r="O17" t="n">
-        <v>334.3703540893008</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P17" t="n">
-        <v>486.6315098849295</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q17" t="n">
         <v>75.1232294596999</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>12.39075141211265</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K18" t="n">
-        <v>100.1220351320622</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L18" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M18" t="n">
-        <v>652.1659613023895</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N18" t="n">
-        <v>652.1659613023895</v>
+        <v>251.9322116757093</v>
       </c>
       <c r="O18" t="n">
-        <v>208.0245171562028</v>
+        <v>319.6987628989481</v>
       </c>
       <c r="P18" t="n">
-        <v>147.4296650425611</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q18" t="n">
-        <v>257.7575910348905</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>121.269135021251</v>
       </c>
       <c r="L19" t="n">
-        <v>211.2700490050757</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M19" t="n">
         <v>233.24870816099</v>
@@ -36057,10 +36057,10 @@
         <v>199.2125590736045</v>
       </c>
       <c r="P19" t="n">
-        <v>146.7024944428487</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.29134422005446</v>
+        <v>17.29134422005448</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>221.8149475898541</v>
+        <v>52.71833241778032</v>
       </c>
       <c r="K20" t="n">
         <v>130.2621430076528</v>
       </c>
       <c r="L20" t="n">
-        <v>198.8762138948138</v>
+        <v>408.7669457607856</v>
       </c>
       <c r="M20" t="n">
-        <v>652.1659613023895</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="N20" t="n">
-        <v>262.036144298589</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="O20" t="n">
-        <v>614.7635209976528</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P20" t="n">
-        <v>214.9565541484001</v>
+        <v>164.8328017134469</v>
       </c>
       <c r="Q20" t="n">
         <v>287.4382201196046</v>
@@ -36200,25 +36200,25 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K21" t="n">
-        <v>286.1050559965547</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L21" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M21" t="n">
-        <v>231.257331456148</v>
+        <v>342.9315771988938</v>
       </c>
       <c r="N21" t="n">
-        <v>652.1659613023895</v>
+        <v>251.9322116757093</v>
       </c>
       <c r="O21" t="n">
-        <v>208.0245171562028</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P21" t="n">
-        <v>465.8924336824982</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q21" t="n">
-        <v>48.1293960362938</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>121.269135021251</v>
       </c>
       <c r="L22" t="n">
-        <v>211.2700490050757</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M22" t="n">
         <v>233.24870816099</v>
@@ -36294,10 +36294,10 @@
         <v>199.2125590736045</v>
       </c>
       <c r="P22" t="n">
-        <v>146.7024944428487</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.29134422005446</v>
+        <v>17.29134422005448</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>52.71833241778029</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K23" t="n">
-        <v>454.4075555788175</v>
+        <v>355.8398528148057</v>
       </c>
       <c r="L23" t="n">
-        <v>616.5374284452643</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M23" t="n">
         <v>652.1659613023897</v>
       </c>
       <c r="N23" t="n">
-        <v>262.036144298589</v>
+        <v>262.0361442985891</v>
       </c>
       <c r="O23" t="n">
-        <v>233.9633397349075</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P23" t="n">
-        <v>212.2186492739536</v>
+        <v>164.8328017134469</v>
       </c>
       <c r="Q23" t="n">
         <v>75.1232294596999</v>
       </c>
       <c r="R23" t="n">
-        <v>23.14306484755528</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>552.2572229763482</v>
       </c>
       <c r="M24" t="n">
-        <v>652.1659613023897</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N24" t="n">
         <v>251.9322116757093</v>
       </c>
       <c r="O24" t="n">
-        <v>427.3301894284932</v>
+        <v>319.6987628989486</v>
       </c>
       <c r="P24" t="n">
-        <v>147.4296650425611</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q24" t="n">
-        <v>48.1293960362938</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>121.269135021251</v>
       </c>
       <c r="L25" t="n">
-        <v>211.2700490050757</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M25" t="n">
         <v>233.24870816099</v>
@@ -36531,10 +36531,10 @@
         <v>199.2125590736045</v>
       </c>
       <c r="P25" t="n">
-        <v>146.7024944428487</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.29134422005446</v>
+        <v>17.29134422005448</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>52.71833241778029</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K26" t="n">
-        <v>454.4075555788175</v>
+        <v>130.2621430076528</v>
       </c>
       <c r="L26" t="n">
-        <v>616.5374284452643</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M26" t="n">
-        <v>398.5799559277416</v>
+        <v>553.6287533268327</v>
       </c>
       <c r="N26" t="n">
-        <v>699.3830687105732</v>
+        <v>699.3830687105733</v>
       </c>
       <c r="O26" t="n">
-        <v>614.7635209976528</v>
+        <v>614.7635209976529</v>
       </c>
       <c r="P26" t="n">
-        <v>486.6315098849295</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q26" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R26" t="n">
-        <v>23.14306484755528</v>
+        <v>23.14306484755531</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>12.39075141211265</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K27" t="n">
-        <v>100.1220351320622</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L27" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M27" t="n">
-        <v>231.257331456148</v>
+        <v>267.5320265621017</v>
       </c>
       <c r="N27" t="n">
-        <v>731.2745860192629</v>
+        <v>251.9322116757093</v>
       </c>
       <c r="O27" t="n">
-        <v>549.3754295483201</v>
+        <v>601.8868364329323</v>
       </c>
       <c r="P27" t="n">
         <v>147.4296650425611</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.96788811211117</v>
+        <v>73.96788811211113</v>
       </c>
       <c r="K28" t="n">
-        <v>201.2487931569082</v>
+        <v>201.2487931569081</v>
       </c>
       <c r="L28" t="n">
         <v>291.2497071407329</v>
       </c>
       <c r="M28" t="n">
-        <v>313.2283662966472</v>
+        <v>313.2283662966471</v>
       </c>
       <c r="N28" t="n">
         <v>313.1717448903009</v>
       </c>
       <c r="O28" t="n">
-        <v>279.1922172092617</v>
+        <v>279.1922172092616</v>
       </c>
       <c r="P28" t="n">
         <v>226.6821525785059</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.27100235571163</v>
+        <v>97.2710023557116</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>129.3074980618337</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K29" t="n">
-        <v>454.4075555788175</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L29" t="n">
-        <v>616.5374284452643</v>
+        <v>465.0285058259814</v>
       </c>
       <c r="M29" t="n">
-        <v>702.7909715464335</v>
+        <v>702.7909715464336</v>
       </c>
       <c r="N29" t="n">
-        <v>699.3830687105732</v>
+        <v>699.3830687105733</v>
       </c>
       <c r="O29" t="n">
-        <v>233.9633397349075</v>
+        <v>614.7635209976529</v>
       </c>
       <c r="P29" t="n">
-        <v>486.6315098849295</v>
+        <v>164.8328017134469</v>
       </c>
       <c r="Q29" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R29" t="n">
-        <v>23.14306484755528</v>
+        <v>23.14306484755531</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>12.39075141211265</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K30" t="n">
         <v>364.5872721446408</v>
       </c>
       <c r="L30" t="n">
-        <v>310.6801297159496</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M30" t="n">
-        <v>231.257331456148</v>
+        <v>342.931577198894</v>
       </c>
       <c r="N30" t="n">
-        <v>731.2745860192629</v>
+        <v>251.9322116757093</v>
       </c>
       <c r="O30" t="n">
-        <v>208.0245171562028</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P30" t="n">
-        <v>465.8924336824982</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q30" t="n">
         <v>258.2066837721429</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.96788811211117</v>
+        <v>73.96788811211114</v>
       </c>
       <c r="K31" t="n">
-        <v>201.2487931569082</v>
+        <v>201.2487931569081</v>
       </c>
       <c r="L31" t="n">
         <v>291.2497071407329</v>
       </c>
       <c r="M31" t="n">
-        <v>313.2283662966472</v>
+        <v>313.2283662966471</v>
       </c>
       <c r="N31" t="n">
         <v>313.1717448903009</v>
@@ -37008,7 +37008,7 @@
         <v>226.6821525785059</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.27100235571163</v>
+        <v>97.27100235571162</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K32" t="n">
-        <v>130.2621430076528</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L32" t="n">
-        <v>616.5374284452643</v>
+        <v>580.5767220664829</v>
       </c>
       <c r="M32" t="n">
-        <v>702.7909715464335</v>
+        <v>702.7909715464336</v>
       </c>
       <c r="N32" t="n">
-        <v>699.3830687105732</v>
+        <v>262.0361442985891</v>
       </c>
       <c r="O32" t="n">
-        <v>465.6013027780516</v>
+        <v>614.7635209976529</v>
       </c>
       <c r="P32" t="n">
-        <v>486.6315098849295</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q32" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R32" t="n">
-        <v>23.14306484755528</v>
+        <v>23.14306484755531</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>364.5872721446408</v>
       </c>
       <c r="L33" t="n">
-        <v>198.2264049690944</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M33" t="n">
-        <v>696.9623952061479</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N33" t="n">
         <v>251.9322116757093</v>
       </c>
       <c r="O33" t="n">
-        <v>208.0245171562028</v>
+        <v>319.6987628989489</v>
       </c>
       <c r="P33" t="n">
-        <v>465.8924336824982</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q33" t="n">
         <v>258.2066837721429</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.96788811211117</v>
+        <v>73.96788811211111</v>
       </c>
       <c r="K34" t="n">
-        <v>201.2487931569079</v>
+        <v>201.2487931569081</v>
       </c>
       <c r="L34" t="n">
         <v>291.2497071407329</v>
       </c>
       <c r="M34" t="n">
-        <v>313.2283662966472</v>
+        <v>313.2283662966471</v>
       </c>
       <c r="N34" t="n">
         <v>313.1717448903009</v>
       </c>
       <c r="O34" t="n">
-        <v>279.1922172092617</v>
+        <v>279.1922172092616</v>
       </c>
       <c r="P34" t="n">
         <v>226.6821525785059</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.27100235571163</v>
+        <v>97.27100235571227</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>194.5594523702039</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K35" t="n">
-        <v>454.4075555788175</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L35" t="n">
-        <v>616.5374284452643</v>
+        <v>208.481751962869</v>
       </c>
       <c r="M35" t="n">
-        <v>702.7909715464335</v>
+        <v>702.7909715464336</v>
       </c>
       <c r="N35" t="n">
-        <v>262.036144298589</v>
+        <v>262.0361442985891</v>
       </c>
       <c r="O35" t="n">
-        <v>233.9633397349075</v>
+        <v>614.7635209976529</v>
       </c>
       <c r="P35" t="n">
-        <v>486.6315098849295</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q35" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R35" t="n">
-        <v>23.14306484755528</v>
+        <v>23.14306484755531</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>364.5872721446408</v>
       </c>
       <c r="L36" t="n">
-        <v>181.416877672889</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M36" t="n">
-        <v>696.9623952061479</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N36" t="n">
         <v>251.9322116757093</v>
       </c>
       <c r="O36" t="n">
-        <v>543.2968130923457</v>
+        <v>319.6987628989489</v>
       </c>
       <c r="P36" t="n">
-        <v>147.4296650425611</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q36" t="n">
         <v>258.2066837721429</v>
@@ -37464,25 +37464,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>149.6086416746528</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L37" t="n">
-        <v>211.2700490050757</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M37" t="n">
-        <v>233.24870816099</v>
+        <v>337.5410516432173</v>
       </c>
       <c r="N37" t="n">
-        <v>233.1920867546438</v>
+        <v>337.484430236871</v>
       </c>
       <c r="O37" t="n">
-        <v>303.5049025558318</v>
+        <v>199.2125590736045</v>
       </c>
       <c r="P37" t="n">
-        <v>250.994837925076</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.29134422005446</v>
+        <v>45.63085087345624</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>52.71833241778029</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K38" t="n">
-        <v>454.4075555788175</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L38" t="n">
-        <v>389.7449762157898</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M38" t="n">
-        <v>253.277438053601</v>
+        <v>253.2774380536011</v>
       </c>
       <c r="N38" t="n">
-        <v>699.3830687105732</v>
+        <v>326.6370661565811</v>
       </c>
       <c r="O38" t="n">
-        <v>614.7635209976528</v>
+        <v>614.7635209976529</v>
       </c>
       <c r="P38" t="n">
-        <v>486.6315098849295</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q38" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R38" t="n">
-        <v>23.14306484755528</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>364.5872721446408</v>
       </c>
       <c r="L39" t="n">
-        <v>332.9041420681515</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M39" t="n">
-        <v>696.9623952061479</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N39" t="n">
         <v>251.9322116757093</v>
       </c>
       <c r="O39" t="n">
-        <v>601.8868364329323</v>
+        <v>319.6987628989489</v>
       </c>
       <c r="P39" t="n">
-        <v>147.4296650425611</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q39" t="n">
-        <v>48.1293960362938</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>121.269135021251</v>
+        <v>149.6086416746528</v>
       </c>
       <c r="L40" t="n">
-        <v>315.5623924873031</v>
+        <v>315.562392487303</v>
       </c>
       <c r="M40" t="n">
         <v>233.24870816099</v>
       </c>
       <c r="N40" t="n">
-        <v>261.5315934080448</v>
+        <v>233.1920867546438</v>
       </c>
       <c r="O40" t="n">
-        <v>199.2125590736045</v>
+        <v>303.5049025558318</v>
       </c>
       <c r="P40" t="n">
-        <v>250.9948379250761</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.29134422005446</v>
+        <v>17.29134422005448</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>52.71833241778029</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K41" t="n">
-        <v>454.4075555788175</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L41" t="n">
-        <v>321.0316239857027</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M41" t="n">
-        <v>702.7909715464335</v>
+        <v>253.2774380536011</v>
       </c>
       <c r="N41" t="n">
-        <v>699.3830687105732</v>
+        <v>303.4940013090248</v>
       </c>
       <c r="O41" t="n">
-        <v>233.9633397349075</v>
+        <v>614.7635209976529</v>
       </c>
       <c r="P41" t="n">
-        <v>486.6315098849295</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q41" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R41" t="n">
-        <v>23.14306484755528</v>
+        <v>23.14306484755531</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>12.39075141211265</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K42" t="n">
-        <v>100.1220351320622</v>
+        <v>364.5872721446408</v>
       </c>
       <c r="L42" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M42" t="n">
-        <v>696.9623952061479</v>
+        <v>342.931577198894</v>
       </c>
       <c r="N42" t="n">
         <v>251.9322116757093</v>
       </c>
       <c r="O42" t="n">
-        <v>601.8868364329323</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P42" t="n">
-        <v>147.4296650425611</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q42" t="n">
-        <v>219.3325874810844</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>98.28057345868132</v>
+        <v>98.2805734586814</v>
       </c>
       <c r="K43" t="n">
-        <v>121.269135021251</v>
+        <v>155.6204116981967</v>
       </c>
       <c r="L43" t="n">
-        <v>315.5623924873031</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M43" t="n">
-        <v>233.24870816099</v>
+        <v>337.5410516432174</v>
       </c>
       <c r="N43" t="n">
         <v>233.1920867546438</v>
@@ -37953,10 +37953,10 @@
         <v>199.2125590736045</v>
       </c>
       <c r="P43" t="n">
-        <v>146.7024944428487</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.64262089700179</v>
+        <v>17.29134422005448</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>221.814947589854</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K44" t="n">
-        <v>454.4075555788174</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L44" t="n">
-        <v>208.4817519628684</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M44" t="n">
-        <v>702.7909715464334</v>
+        <v>294.735295064037</v>
       </c>
       <c r="N44" t="n">
-        <v>262.0361442985889</v>
+        <v>262.0361442985891</v>
       </c>
       <c r="O44" t="n">
-        <v>614.7635209976528</v>
+        <v>614.7635209976529</v>
       </c>
       <c r="P44" t="n">
-        <v>486.6315098849295</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q44" t="n">
-        <v>287.4382201196045</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R44" t="n">
-        <v>23.14306484755525</v>
+        <v>23.14306484755531</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>12.39075141211265</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K45" t="n">
         <v>364.5872721446408</v>
       </c>
       <c r="L45" t="n">
-        <v>396.160184782774</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M45" t="n">
-        <v>231.2573314561479</v>
+        <v>342.931577198894</v>
       </c>
       <c r="N45" t="n">
-        <v>251.9322116757092</v>
+        <v>251.9322116757093</v>
       </c>
       <c r="O45" t="n">
-        <v>601.8868364329323</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P45" t="n">
-        <v>465.8924336824982</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q45" t="n">
         <v>258.2066837721429</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>149.6086416746526</v>
+        <v>225.5614785034783</v>
       </c>
       <c r="L46" t="n">
-        <v>315.562392487303</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M46" t="n">
         <v>337.5410516432173</v>
       </c>
       <c r="N46" t="n">
-        <v>233.1920867546438</v>
+        <v>261.5315934080448</v>
       </c>
       <c r="O46" t="n">
         <v>199.2125590736045</v>
       </c>
       <c r="P46" t="n">
-        <v>146.7024944428487</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.29134422005444</v>
+        <v>17.29134422005448</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
